--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9597F0-6EB9-4666-A6FF-E60F605F684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C146E9-AA71-4082-B86A-229CDB0B3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC81D871-1906-46FC-AF98-2FE79519B3C1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{5A5CA3A5-E5FB-484C-BFEE-CF6C71F1A56D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3DF69-10E4-4988-A768-ADB482C40AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858AC734-0ED3-4B6B-BECF-9A85AAB48492}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -636,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3">
-        <v>189.6</v>
+        <v>189.4</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -659,16 +659,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>40.799999999999997</v>
+        <v>40.9</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
-        <v>189.4</v>
+        <v>189</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -688,16 +688,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>35.299999999999997</v>
+        <v>36.1</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>189.3</v>
+        <v>189</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -717,16 +717,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>189.1</v>
+        <v>188.8</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -752,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3">
-        <v>188.8</v>
+        <v>188.2</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
@@ -781,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3">
-        <v>188.2</v>
+        <v>188.1</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>86.4</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -810,10 +810,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>188.1</v>
+        <v>188</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>84.6</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -877,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" s="3">
-        <v>83.4</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
-        <v>185.8</v>
+        <v>185.6</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>81.099999999999994</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -926,19 +926,19 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3">
-        <v>185.6</v>
+        <v>185.3</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3">
-        <v>80.599999999999994</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3">
-        <v>185.3</v>
+        <v>184.6</v>
       </c>
       <c r="I14" s="3">
         <v>12</v>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="3">
-        <v>80.3</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>183.5</v>
+        <v>184.5</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="3">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5">
         <v>0.8</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G22" s="5">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G23" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G24" s="5">
         <v>0.6</v>
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="5">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="5">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="5">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="5">
         <v>0.4</v>
@@ -1274,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5">
         <v>0.4</v>
@@ -1294,10 +1294,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G31" s="5">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="5">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>81</v>
+        <v>80.3</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="3">
-        <v>45.5</v>
+        <v>46.7</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -1426,16 +1426,16 @@
         <v>12</v>
       </c>
       <c r="K37" s="3">
-        <v>51.5</v>
+        <v>52.7</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O37" s="3">
-        <v>16</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,19 +1443,19 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3">
-        <v>57</v>
+        <v>51.3</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -1464,16 +1464,16 @@
         <v>4</v>
       </c>
       <c r="K38" s="3">
-        <v>48.5</v>
+        <v>49.3</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O38" s="3">
-        <v>16</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,19 +1481,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>74</v>
+        <v>77.7</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
@@ -1502,16 +1502,16 @@
         <v>3</v>
       </c>
       <c r="K39" s="3">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1519,37 +1519,37 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>71.5</v>
+        <v>69.7</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3">
-        <v>58</v>
+        <v>57.7</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K40" s="3">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O40" s="3">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1557,34 +1557,34 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>69.5</v>
+        <v>66.3</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3">
-        <v>46</v>
+        <v>46.7</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O41" s="3">
         <v>14</v>
@@ -1595,34 +1595,34 @@
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>60</v>
+        <v>59.5</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K42" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>13.5</v>
@@ -1636,34 +1636,34 @@
         <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="3">
-        <v>60.5</v>
+        <v>63.7</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K43" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O43" s="3">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,37 +1671,37 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3">
-        <v>61.5</v>
+        <v>62.3</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G44" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K44" s="3">
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O44" s="3">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1709,16 +1709,16 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C45" s="3">
-        <v>58.5</v>
+        <v>62</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>64</v>
@@ -1727,19 +1727,19 @@
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K45" s="3">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O45" s="3">
-        <v>12</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1747,28 +1747,28 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3">
-        <v>56.5</v>
+        <v>57.3</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" s="3">
-        <v>64.5</v>
+        <v>64</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
@@ -1777,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="O46" s="3">
-        <v>11</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1788,31 +1788,31 @@
         <v>9</v>
       </c>
       <c r="C47" s="3">
-        <v>56.5</v>
+        <v>56.7</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G47" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K47" s="3">
-        <v>39</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>10</v>
@@ -1823,19 +1823,19 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>56.5</v>
+        <v>54</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
@@ -1844,16 +1844,16 @@
         <v>16</v>
       </c>
       <c r="K48" s="3">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O48" s="3">
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="3">
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
@@ -1882,16 +1882,16 @@
         <v>7</v>
       </c>
       <c r="K49" s="3">
-        <v>35.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O49" s="3">
-        <v>8</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3">
-        <v>49.5</v>
+        <v>45</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>99.5</v>
+        <v>96.3</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="K50" s="3">
-        <v>28</v>
+        <v>35.5</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,16 +1995,16 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K54" s="3">
-        <v>13</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -2024,16 +2024,16 @@
         <v>12</v>
       </c>
       <c r="G55" s="3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K55" s="3">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2044,25 +2044,25 @@
         <v>15</v>
       </c>
       <c r="C56" s="3">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="3">
         <v>14.5</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I56" s="3">
-        <v>3</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3">
         <v>13</v>
@@ -2079,10 +2079,10 @@
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G57" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
@@ -2091,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="K57" s="3">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2102,25 +2102,25 @@
         <v>12</v>
       </c>
       <c r="C58" s="3">
-        <v>11</v>
+        <v>12.7</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G58" s="3">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K58" s="3">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2131,25 +2131,25 @@
         <v>6</v>
       </c>
       <c r="C59" s="3">
-        <v>10.5</v>
+        <v>12.3</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G59" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K59" s="3">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2160,25 +2160,25 @@
         <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K60" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,28 +2186,28 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G61" s="3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K61" s="3">
-        <v>17</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2215,10 +2215,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3">
-        <v>8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
@@ -2227,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="G62" s="3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K62" s="3">
-        <v>20</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,25 +2247,25 @@
         <v>14</v>
       </c>
       <c r="C63" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G63" s="3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K63" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,25 +2273,25 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K64" s="3">
         <v>21</v>
@@ -2305,13 +2305,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -2320,10 +2320,10 @@
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K65" s="3">
-        <v>21.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="3">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2343,16 +2343,16 @@
         <v>7</v>
       </c>
       <c r="G66" s="3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>24.5</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2372,16 +2372,16 @@
         <v>3</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>26.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2452,16 +2452,16 @@
         <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G71" s="5">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2490,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="C72" s="5">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
@@ -2499,25 +2499,25 @@
         <v>7</v>
       </c>
       <c r="G72" s="5">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K72" s="5">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O72" s="5">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -2534,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G73" s="5">
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
@@ -2546,16 +2546,16 @@
         <v>5</v>
       </c>
       <c r="K73" s="5">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O73" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2566,34 +2566,34 @@
         <v>12</v>
       </c>
       <c r="C74" s="5">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G74" s="5">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K74" s="5">
-        <v>0.62</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O74" s="5">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G75" s="5">
         <v>0.22</v>
@@ -2619,19 +2619,19 @@
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K75" s="5">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O75" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" s="5">
         <v>0.39</v>
@@ -2648,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G76" s="5">
         <v>0.21</v>
@@ -2657,19 +2657,19 @@
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K76" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O76" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C77" s="5">
         <v>0.38</v>
@@ -2686,25 +2686,25 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G77" s="5">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K77" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O77" s="5">
         <v>0.33</v>
@@ -2724,16 +2724,16 @@
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G78" s="5">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K78" s="5">
         <v>0.53</v>
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O78" s="5">
         <v>0.33</v>
@@ -2753,10 +2753,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C79" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
@@ -2765,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="5">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,16 +2774,16 @@
         <v>4</v>
       </c>
       <c r="K79" s="5">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O79" s="5">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -2791,37 +2791,37 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" s="5">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G80" s="5">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I80" s="3">
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K80" s="5">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O80" s="5">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -2829,28 +2829,28 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G81" s="5">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I81" s="3">
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K81" s="5">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
@@ -2859,7 +2859,7 @@
         <v>8</v>
       </c>
       <c r="O81" s="5">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -2867,34 +2867,34 @@
         <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C82" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G82" s="5">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K82" s="5">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O82" s="5">
         <v>0.3</v>
@@ -2905,19 +2905,19 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C83" s="5">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I83" s="3">
         <v>13</v>
@@ -2926,16 +2926,16 @@
         <v>15</v>
       </c>
       <c r="K83" s="5">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O83" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -2946,16 +2946,16 @@
         <v>7</v>
       </c>
       <c r="C84" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G84" s="5">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,16 +2964,16 @@
         <v>16</v>
       </c>
       <c r="K84" s="5">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O84" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="3">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -3079,16 +3079,16 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>3</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K90" s="3">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C91" s="3">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -3193,16 +3193,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C92" s="3">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -3231,16 +3231,16 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C93" s="3">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -3269,19 +3269,19 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="3">
         <v>7</v>
@@ -3307,25 +3307,25 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="3">
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K95" s="3">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C96" s="3">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K96" s="3">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C97" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C98" s="3">
-        <v>17.5</v>
+        <v>16.7</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
@@ -3459,16 +3459,16 @@
         <v>12</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C99" s="3">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>22.5</v>
+        <v>20.3</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C106" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C107" s="3">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C108" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C109" s="3">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C111" s="3">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="3">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C113" s="3">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C114" s="3">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C116" s="3">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3723,10 @@
         <v>13</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C117" s="3">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="C118" s="3">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C146E9-AA71-4082-B86A-229CDB0B3B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38958E3F-57F2-4DA1-BDFF-15CFE5817B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{5A5CA3A5-E5FB-484C-BFEE-CF6C71F1A56D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A46D1A5-DE6F-43D5-B96B-74A058FD15A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>SIRIUS</t>
   </si>
   <si>
+    <t>Eagles</t>
+  </si>
+  <si>
     <t>VSS</t>
-  </si>
-  <si>
-    <t>Eagles</t>
   </si>
   <si>
     <t>Стрела</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858AC734-0ED3-4B6B-BECF-9A85AAB48492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCDBFC-651F-4EEB-8EA5-913C3EE143E6}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="3">
-        <v>189.4</v>
+        <v>190</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="3">
-        <v>189</v>
+        <v>189.9</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>36.1</v>
+        <v>34.6</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="3">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K6" s="3">
-        <v>87.2</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -752,19 +752,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
-        <v>188.2</v>
+        <v>188.3</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>86.4</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -775,25 +775,25 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
-        <v>188.1</v>
+        <v>188.2</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" s="3">
-        <v>85.9</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3">
         <v>187.9</v>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -877,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" s="3">
-        <v>82.1</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -906,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3">
-        <v>82</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K13" s="3">
-        <v>81.099999999999994</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>17.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
         <v>184.6</v>
@@ -964,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3">
-        <v>80.599999999999994</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -978,25 +978,25 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3">
-        <v>184.5</v>
+        <v>183.9</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" s="3">
-        <v>79.5</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,13 +1007,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>182.7</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5">
         <v>0.8</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="5">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G22" s="5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G23" s="5">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="5">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5">
         <v>0.53</v>
@@ -1214,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" s="5">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G28" s="5">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G29" s="5">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G30" s="5">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G31" s="5">
         <v>0.38</v>
@@ -1305,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G33" s="5">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>80.3</v>
+        <v>79.3</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1417,25 +1417,25 @@
         <v>15</v>
       </c>
       <c r="G37" s="3">
-        <v>46.7</v>
+        <v>49.8</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K37" s="3">
-        <v>52.7</v>
+        <v>49.8</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O37" s="3">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="3">
-        <v>79</v>
+        <v>75.7</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1455,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="G38" s="3">
-        <v>51.3</v>
+        <v>53.5</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K38" s="3">
         <v>49.3</v>
@@ -1470,10 +1470,10 @@
         <v>2</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>16.7</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1484,34 +1484,34 @@
         <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>77.7</v>
+        <v>73.3</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3">
-        <v>57</v>
+        <v>55.5</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="3">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O39" s="3">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1519,25 +1519,25 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>69.7</v>
+        <v>71.3</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G40" s="3">
-        <v>57.7</v>
+        <v>58.5</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K40" s="3">
         <v>47.3</v>
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O40" s="3">
         <v>14.3</v>
@@ -1557,25 +1557,25 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3">
-        <v>66.3</v>
+        <v>64.5</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G41" s="3">
-        <v>58</v>
+        <v>59.8</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K41" s="3">
         <v>46.7</v>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O41" s="3">
         <v>14</v>
@@ -1595,19 +1595,19 @@
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C42" s="3">
-        <v>65</v>
+        <v>64.3</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3">
-        <v>59.5</v>
+        <v>60</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
@@ -1616,16 +1616,16 @@
         <v>9</v>
       </c>
       <c r="K42" s="3">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O42" s="3">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1636,34 +1636,34 @@
         <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>63</v>
+        <v>63.5</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>63.7</v>
+        <v>60.7</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K43" s="3">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O43" s="3">
-        <v>13.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="3">
-        <v>62.3</v>
+        <v>61.5</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="3">
-        <v>64</v>
+        <v>61.5</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
@@ -1692,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="K44" s="3">
-        <v>43</v>
+        <v>44.3</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O44" s="3">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1709,37 +1709,37 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C45" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G45" s="3">
-        <v>64</v>
+        <v>64.3</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K45" s="3">
-        <v>42.3</v>
+        <v>44</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O45" s="3">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1747,37 +1747,37 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3">
-        <v>57.3</v>
+        <v>59.8</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G46" s="3">
-        <v>64</v>
+        <v>65.5</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K46" s="3">
-        <v>41.7</v>
+        <v>43.8</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O46" s="3">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1785,10 +1785,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>56.7</v>
+        <v>58.8</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="3">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
@@ -1806,16 +1806,16 @@
         <v>11</v>
       </c>
       <c r="K47" s="3">
-        <v>40.700000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O47" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1823,37 +1823,37 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K48" s="3">
-        <v>37</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="O48" s="3">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1861,10 +1861,10 @@
         <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
@@ -1873,25 +1873,25 @@
         <v>14</v>
       </c>
       <c r="G49" s="3">
-        <v>72.5</v>
+        <v>77</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K49" s="3">
-        <v>36.700000000000003</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O49" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1899,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>45</v>
+        <v>49.7</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,16 +1911,16 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>96.3</v>
+        <v>88.5</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K50" s="3">
-        <v>35.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>6.7</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,16 +1995,16 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>13.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,22 +2015,22 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K55" s="3">
         <v>14</v>
@@ -2041,28 +2041,28 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G56" s="3">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K56" s="3">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,16 +2070,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="3">
         <v>3.5</v>
@@ -2088,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K57" s="3">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,16 +2099,16 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C58" s="3">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G58" s="3">
         <v>3.3</v>
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K58" s="3">
-        <v>16.3</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3">
         <v>3</v>
@@ -2146,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K59" s="3">
         <v>17.3</v>
@@ -2157,19 +2157,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G60" s="3">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
@@ -2178,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="K60" s="3">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,10 +2186,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61" s="3">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
@@ -2198,16 +2198,16 @@
         <v>4</v>
       </c>
       <c r="G61" s="3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K61" s="3">
-        <v>18.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2215,28 +2215,28 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C62" s="3">
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K62" s="3">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,25 +2247,25 @@
         <v>14</v>
       </c>
       <c r="C63" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K63" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,10 +2273,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K64" s="3">
-        <v>21</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2302,16 +2302,16 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="3">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -2320,10 +2320,10 @@
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K65" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2343,16 +2343,16 @@
         <v>7</v>
       </c>
       <c r="G66" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K66" s="3">
-        <v>26.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>27</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2452,16 +2452,16 @@
         <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G71" s="5">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2487,37 +2487,37 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72" s="5">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="5">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K72" s="5">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O72" s="5">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -2528,7 +2528,7 @@
         <v>13</v>
       </c>
       <c r="C73" s="5">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
@@ -2537,25 +2537,25 @@
         <v>14</v>
       </c>
       <c r="G73" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K73" s="5">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O73" s="5">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2563,10 +2563,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
@@ -2575,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
@@ -2590,10 +2590,10 @@
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O74" s="5">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2610,16 +2610,16 @@
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G75" s="5">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K75" s="5">
         <v>0.55000000000000004</v>
@@ -2628,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O75" s="5">
         <v>0.35</v>
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C76" s="5">
         <v>0.39</v>
@@ -2648,25 +2648,25 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G76" s="5">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I76" s="3">
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K76" s="5">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O76" s="5">
         <v>0.34</v>
@@ -2677,37 +2677,37 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C77" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G77" s="5">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K77" s="5">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O77" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5">
         <v>0.38</v>
@@ -2724,25 +2724,25 @@
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G78" s="5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K78" s="5">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O78" s="5">
         <v>0.33</v>
@@ -2756,16 +2756,16 @@
         <v>11</v>
       </c>
       <c r="C79" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G79" s="5">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,13 +2774,13 @@
         <v>4</v>
       </c>
       <c r="K79" s="5">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O79" s="5">
         <v>0.32</v>
@@ -2791,16 +2791,16 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C80" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G80" s="5">
         <v>0.19</v>
@@ -2809,19 +2809,19 @@
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K80" s="5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O80" s="5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -2829,19 +2829,19 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" s="5">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G81" s="5">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I81" s="3">
         <v>11</v>
@@ -2856,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O81" s="5">
         <v>0.31</v>
@@ -2867,19 +2867,19 @@
         <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C82" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G82" s="5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
@@ -2888,16 +2888,16 @@
         <v>9</v>
       </c>
       <c r="K82" s="5">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O82" s="5">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -2905,10 +2905,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
@@ -2926,13 +2926,13 @@
         <v>15</v>
       </c>
       <c r="K83" s="5">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O83" s="5">
         <v>0.3</v>
@@ -2946,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -2955,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="G84" s="5">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,13 +2964,13 @@
         <v>16</v>
       </c>
       <c r="K84" s="5">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O84" s="5">
         <v>0.28999999999999998</v>
@@ -3041,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3059,16 +3059,16 @@
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K88" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O88" s="3">
         <v>0</v>
@@ -3082,31 +3082,31 @@
         <v>12</v>
       </c>
       <c r="C89" s="3">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K89" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M89" s="3">
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K90" s="3">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C91" s="3">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -3173,16 +3173,16 @@
         <v>4</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K91" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C92" s="3">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -3211,16 +3211,16 @@
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K92" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M92" s="3">
         <v>5</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O92" s="3">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="3">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -3249,16 +3249,16 @@
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K93" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" s="3">
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94" s="3">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
@@ -3325,7 +3325,7 @@
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K95" s="3">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3348,22 +3348,22 @@
         <v>15</v>
       </c>
       <c r="C96" s="3">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="3">
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K96" s="3">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="3">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" s="3">
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C98" s="3">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -3439,16 +3439,16 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" s="3">
         <v>11</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>12</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C99" s="3">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
@@ -3477,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K99" s="3">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>19</v>
+        <v>20.3</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>20.3</v>
+        <v>21.8</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C107" s="3">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C108" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C109" s="3">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C110" s="3">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C111" s="3">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C112" s="3">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="3">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" s="3">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="C115" s="3">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" s="3">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="3">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="C118" s="3">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38958E3F-57F2-4DA1-BDFF-15CFE5817B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF66F50-F22E-4F7D-ACF2-BF73FE6912EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A46D1A5-DE6F-43D5-B96B-74A058FD15A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1BE9374-8941-4BA0-8464-D473A39B8F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCDBFC-651F-4EEB-8EA5-913C3EE143E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61195A0D-319C-4E96-A0E8-7F226AA3243E}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -639,16 +639,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="3">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
-        <v>90.7</v>
+        <v>92.1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -674,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>89.2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="3">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="3">
-        <v>86.4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -746,25 +746,25 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>33.299999999999997</v>
+        <v>32.5</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3">
-        <v>188.3</v>
+        <v>188.2</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7" s="3">
-        <v>85.9</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -775,25 +775,25 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3">
-        <v>188.2</v>
+        <v>187.9</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>85.6</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -813,16 +813,16 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>188</v>
+        <v>187.9</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3">
-        <v>85.3</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
-        <v>187.9</v>
+        <v>187.6</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -877,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" s="3">
-        <v>81.900000000000006</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -900,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="G12" s="3">
-        <v>185.6</v>
+        <v>185.9</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>81.400000000000006</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
@@ -929,16 +929,16 @@
         <v>8</v>
       </c>
       <c r="G13" s="3">
-        <v>185.3</v>
+        <v>185.9</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>81.3</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>18.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3">
-        <v>184.6</v>
+        <v>185.2</v>
       </c>
       <c r="I14" s="3">
         <v>12</v>
@@ -984,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>183.9</v>
+        <v>184.6</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="5">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="5">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="5">
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>0.62</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5">
         <v>0.55000000000000004</v>
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" s="5">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1214,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27" s="5">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="5">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="5">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="5">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,16 +1408,16 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>79.3</v>
+        <v>78.2</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3">
-        <v>49.8</v>
+        <v>51.2</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="3">
-        <v>49.8</v>
+        <v>50.6</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="O37" s="3">
-        <v>16.3</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,28 +1443,28 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>75.7</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G38" s="3">
-        <v>53.5</v>
+        <v>54.6</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K38" s="3">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>15.3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,37 +1481,37 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3">
-        <v>73.3</v>
+        <v>74</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3">
-        <v>55.5</v>
+        <v>57.6</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K39" s="3">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O39" s="3">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,34 +1522,34 @@
         <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>71.3</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K40" s="3">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O40" s="3">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,34 +1560,34 @@
         <v>11</v>
       </c>
       <c r="C41" s="3">
-        <v>64.5</v>
+        <v>63.6</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G41" s="3">
-        <v>59.8</v>
+        <v>58.8</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K41" s="3">
-        <v>46.7</v>
+        <v>45.2</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O41" s="3">
-        <v>14</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1595,37 +1595,37 @@
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3">
-        <v>64.3</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>60</v>
+        <v>58.8</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K42" s="3">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O42" s="3">
-        <v>14</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1633,34 +1633,34 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C43" s="3">
-        <v>63.5</v>
+        <v>61.8</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G43" s="3">
-        <v>60.7</v>
+        <v>61.2</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3">
-        <v>44.3</v>
+        <v>43.8</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O43" s="3">
         <v>13</v>
@@ -1671,10 +1671,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3">
-        <v>61.5</v>
+        <v>61.2</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="3">
-        <v>61.5</v>
+        <v>62</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
@@ -1692,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="K44" s="3">
-        <v>44.3</v>
+        <v>43.4</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O44" s="3">
         <v>12.8</v>
@@ -1709,28 +1709,28 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3">
-        <v>60</v>
+        <v>59.2</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="3">
-        <v>64.3</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K45" s="3">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="O45" s="3">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1747,10 +1747,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3">
-        <v>59.8</v>
+        <v>58.6</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
@@ -1759,25 +1759,25 @@
         <v>13</v>
       </c>
       <c r="G46" s="3">
-        <v>65.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
-        <v>43.8</v>
+        <v>43.2</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O46" s="3">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1788,16 +1788,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>58.8</v>
+        <v>58.2</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="3">
-        <v>66.8</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
@@ -1806,13 +1806,13 @@
         <v>11</v>
       </c>
       <c r="K47" s="3">
-        <v>41.8</v>
+        <v>42.6</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>11</v>
@@ -1826,34 +1826,34 @@
         <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>53.5</v>
+        <v>56</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3">
-        <v>67</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K48" s="3">
-        <v>38.799999999999997</v>
+        <v>42.5</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O48" s="3">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
@@ -1873,16 +1873,16 @@
         <v>14</v>
       </c>
       <c r="G49" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K49" s="3">
-        <v>38.299999999999997</v>
+        <v>40</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="3">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>49.7</v>
+        <v>47.5</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>88.5</v>
+        <v>79</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="3">
-        <v>35.299999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>17.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>13</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,25 +2015,25 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G55" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2041,28 +2041,28 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G56" s="3">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K56" s="3">
-        <v>16.5</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -2082,16 +2082,16 @@
         <v>10</v>
       </c>
       <c r="G57" s="3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K57" s="3">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2108,19 +2108,19 @@
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" s="3">
-        <v>17.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,28 +2128,28 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K59" s="3">
-        <v>17.3</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,28 +2157,28 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G60" s="3">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K60" s="3">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,28 +2186,28 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G61" s="3">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K61" s="3">
-        <v>19.5</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2218,25 +2218,25 @@
         <v>16</v>
       </c>
       <c r="C62" s="3">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G62" s="3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K62" s="3">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,16 +2247,16 @@
         <v>14</v>
       </c>
       <c r="C63" s="3">
-        <v>8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G63" s="3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
@@ -2265,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="K63" s="3">
-        <v>20</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,10 +2273,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
@@ -2285,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="G64" s="3">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K64" s="3">
-        <v>21.8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
         <v>7.8</v>
@@ -2314,16 +2314,16 @@
         <v>6</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K65" s="3">
-        <v>24</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="3">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2349,10 +2349,10 @@
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2461,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="G71" s="5">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K71" s="5">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="5">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2499,16 +2499,16 @@
         <v>9</v>
       </c>
       <c r="G72" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K72" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
@@ -2537,16 +2537,16 @@
         <v>14</v>
       </c>
       <c r="G73" s="5">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K73" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
@@ -2566,7 +2566,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
@@ -2575,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="5">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
@@ -2584,16 +2584,16 @@
         <v>10</v>
       </c>
       <c r="K74" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O74" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2604,16 +2604,16 @@
         <v>10</v>
       </c>
       <c r="C75" s="5">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E75" s="3">
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G75" s="5">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
@@ -2622,16 +2622,16 @@
         <v>13</v>
       </c>
       <c r="K75" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O75" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2639,16 +2639,16 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="5">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G76" s="5">
         <v>0.22</v>
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K76" s="5">
         <v>0.55000000000000004</v>
@@ -2666,7 +2666,7 @@
         <v>6</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O76" s="5">
         <v>0.34</v>
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C77" s="5">
         <v>0.39</v>
@@ -2686,28 +2686,28 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G77" s="5">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K77" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O77" s="5">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -2715,16 +2715,16 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G78" s="5">
         <v>0.21</v>
@@ -2733,16 +2733,16 @@
         <v>8</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O78" s="5">
         <v>0.33</v>
@@ -2753,16 +2753,16 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C79" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G79" s="5">
         <v>0.21</v>
@@ -2771,19 +2771,19 @@
         <v>9</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K79" s="5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O79" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C80" s="5">
         <v>0.37</v>
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G80" s="5">
         <v>0.19</v>
@@ -2812,13 +2812,13 @@
         <v>11</v>
       </c>
       <c r="K80" s="5">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O80" s="5">
         <v>0.32</v>
@@ -2829,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5">
         <v>0.37</v>
@@ -2838,25 +2838,25 @@
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G81" s="5">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I81" s="3">
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K81" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O81" s="5">
         <v>0.31</v>
@@ -2876,25 +2876,25 @@
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G82" s="5">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K82" s="5">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O82" s="5">
         <v>0.31</v>
@@ -2905,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C83" s="5">
         <v>0.36</v>
@@ -2917,22 +2917,22 @@
         <v>10</v>
       </c>
       <c r="G83" s="5">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I83" s="3">
         <v>13</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K83" s="5">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83" s="5">
         <v>0.3</v>
@@ -2946,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -2955,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="G84" s="5">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,13 +2964,13 @@
         <v>16</v>
       </c>
       <c r="K84" s="5">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O84" s="5">
         <v>0.28999999999999998</v>
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K88" s="3">
         <v>4</v>
@@ -3079,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" s="3">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>4</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3117,25 +3117,25 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" s="3">
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K90" s="3">
         <v>3</v>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="3">
         <v>4</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K91" s="3">
         <v>3</v>
@@ -3182,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="3">
         <v>5</v>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O92" s="3">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" s="3">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -3249,16 +3249,16 @@
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K93" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M93" s="3">
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" s="3">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -3287,10 +3287,10 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M94" s="3">
         <v>7</v>
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
@@ -3325,16 +3325,16 @@
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" s="3">
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="C96" s="3">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K96" s="3">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3383,19 +3383,19 @@
         <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="3">
         <v>10</v>
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C98" s="3">
         <v>17</v>
@@ -3430,7 +3430,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="C99" s="3">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>21.8</v>
+        <v>20.2</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C106" s="3">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C107" s="3">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3638,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="C109" s="3">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C110" s="3">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3660,7 +3660,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="3">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="3">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C114" s="3">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C115" s="3">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C116" s="3">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3723,10 @@
         <v>13</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,10 +3734,10 @@
         <v>14</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118" s="3">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF66F50-F22E-4F7D-ACF2-BF73FE6912EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11511E8-AA00-44DB-B791-1824D1C44E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1BE9374-8941-4BA0-8464-D473A39B8F2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F21FE27-73FE-4CC4-A68F-E8470C7A8D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61195A0D-319C-4E96-A0E8-7F226AA3243E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC54A37-4BE7-446C-90FC-CB120626CB98}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -636,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3">
-        <v>190.1</v>
+        <v>189.9</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -665,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3">
-        <v>189.9</v>
+        <v>189.6</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>34.6</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
-        <v>88.5</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>34.4</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3">
-        <v>88</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>32.5</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -761,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -790,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K8" s="3">
-        <v>85.9</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -819,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>85.6</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
-        <v>187.6</v>
+        <v>186.9</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -868,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>186.9</v>
+        <v>186.5</v>
       </c>
       <c r="I11" s="3">
         <v>9</v>
@@ -891,13 +891,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>185.9</v>
@@ -906,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3">
-        <v>82.1</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,25 +920,25 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3">
-        <v>185.9</v>
+        <v>185.4</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="3">
-        <v>81.400000000000006</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,25 +949,25 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>18.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>185.2</v>
+        <v>185.3</v>
       </c>
       <c r="I14" s="3">
         <v>12</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K14" s="3">
-        <v>81.099999999999994</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -984,19 +984,19 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3">
-        <v>184.6</v>
+        <v>185.1</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3">
-        <v>80.7</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>182.7</v>
+        <v>182</v>
       </c>
       <c r="I16" s="3">
         <v>14</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,10 +1094,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="5">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G24" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G25" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="5">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G28" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30" s="5">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1305,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="5">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G33" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3">
-        <v>78.2</v>
+        <v>74.2</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1417,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="G37" s="3">
-        <v>51.2</v>
+        <v>50.8</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K37" s="3">
-        <v>50.6</v>
+        <v>48.5</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="O37" s="3">
-        <v>16.600000000000001</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3">
-        <v>74.599999999999994</v>
+        <v>74</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="3">
-        <v>54.6</v>
+        <v>53.8</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -1464,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="3">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>16</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,25 +1481,25 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>57.6</v>
+        <v>56.3</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K39" s="3">
         <v>48.2</v>
@@ -1508,10 +1508,10 @@
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O39" s="3">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,16 +1522,16 @@
         <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>71.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>58.8</v>
+        <v>59.8</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
@@ -1540,16 +1540,16 @@
         <v>15</v>
       </c>
       <c r="K40" s="3">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O40" s="3">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1557,28 +1557,28 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C41" s="3">
-        <v>63.6</v>
+        <v>67.5</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G41" s="3">
-        <v>58.8</v>
+        <v>60.2</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K41" s="3">
-        <v>45.2</v>
+        <v>46</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
@@ -1587,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="O41" s="3">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1595,37 +1595,37 @@
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3">
-        <v>62</v>
+        <v>66.7</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G42" s="3">
-        <v>58.8</v>
+        <v>60.5</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K42" s="3">
-        <v>44.6</v>
+        <v>45.8</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O42" s="3">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1633,28 +1633,28 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3">
-        <v>61.8</v>
+        <v>65.2</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3">
-        <v>61.2</v>
+        <v>63.7</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K43" s="3">
-        <v>43.8</v>
+        <v>45.5</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
@@ -1663,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="O43" s="3">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,37 +1671,37 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
-        <v>61.2</v>
+        <v>62.2</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44" s="3">
-        <v>62</v>
+        <v>64.7</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K44" s="3">
-        <v>43.4</v>
+        <v>44.2</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O44" s="3">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1709,37 +1709,37 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>59.2</v>
+        <v>61.5</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G45" s="3">
-        <v>64.599999999999994</v>
+        <v>66.2</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K45" s="3">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O45" s="3">
-        <v>12.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1747,37 +1747,37 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>58.6</v>
+        <v>61.3</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>66.400000000000006</v>
+        <v>66.8</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K46" s="3">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O46" s="3">
-        <v>11.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1785,37 +1785,37 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3">
-        <v>58.2</v>
+        <v>57.2</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G47" s="3">
-        <v>67.400000000000006</v>
+        <v>67</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K47" s="3">
-        <v>42.6</v>
+        <v>43</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O47" s="3">
-        <v>11</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>56</v>
+        <v>55.3</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
@@ -1835,16 +1835,16 @@
         <v>6</v>
       </c>
       <c r="G48" s="3">
-        <v>67.400000000000006</v>
+        <v>68.2</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K48" s="3">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="3">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1861,19 +1861,19 @@
         <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G49" s="3">
-        <v>71</v>
+        <v>72.2</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="K49" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="3">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1899,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3">
-        <v>47.5</v>
+        <v>49.7</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="3">
-        <v>38.4</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>18.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>13.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,16 +2015,16 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
@@ -2033,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="K55" s="3">
-        <v>16</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2044,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="C56" s="3">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -2053,16 +2053,16 @@
         <v>5</v>
       </c>
       <c r="G56" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K56" s="3">
-        <v>16.399999999999999</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,16 +2070,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C57" s="3">
-        <v>12</v>
+        <v>12.7</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="3">
         <v>3.8</v>
@@ -2088,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K57" s="3">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
@@ -2111,16 +2111,16 @@
         <v>12</v>
       </c>
       <c r="G58" s="3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K58" s="3">
-        <v>18</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G59" s="3">
         <v>3.2</v>
@@ -2146,10 +2146,10 @@
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" s="3">
-        <v>18.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,28 +2157,28 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G60" s="3">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K60" s="3">
-        <v>18.399999999999999</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2189,25 +2189,25 @@
         <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K61" s="3">
-        <v>18.600000000000001</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2215,28 +2215,28 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C62" s="3">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G62" s="3">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K62" s="3">
-        <v>20</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2244,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" s="3">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -2256,16 +2256,16 @@
         <v>16</v>
       </c>
       <c r="G63" s="3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K63" s="3">
-        <v>21.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2276,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="3">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
@@ -2285,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="G64" s="3">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K64" s="3">
-        <v>22</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" s="3">
         <v>7.8</v>
@@ -2314,16 +2314,16 @@
         <v>6</v>
       </c>
       <c r="G65" s="3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K65" s="3">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2349,10 +2349,10 @@
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K66" s="3">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>26.2</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2461,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="G71" s="5">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="5">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2499,16 +2499,16 @@
         <v>9</v>
       </c>
       <c r="G72" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K72" s="5">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" s="5">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
@@ -2537,25 +2537,25 @@
         <v>14</v>
       </c>
       <c r="G73" s="5">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K73" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O73" s="5">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74" s="5">
         <v>0.46</v>
@@ -2572,28 +2572,28 @@
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G74" s="5">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K74" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O74" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2601,16 +2601,16 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C75" s="5">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E75" s="3">
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G75" s="5">
         <v>0.22</v>
@@ -2619,16 +2619,16 @@
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K75" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O75" s="5">
         <v>0.34</v>
@@ -2642,13 +2642,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="5">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G76" s="5">
         <v>0.22</v>
@@ -2660,13 +2660,13 @@
         <v>14</v>
       </c>
       <c r="K76" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O76" s="5">
         <v>0.34</v>
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C77" s="5">
         <v>0.39</v>
@@ -2686,7 +2686,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G77" s="5">
         <v>0.21</v>
@@ -2695,16 +2695,16 @@
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K77" s="5">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O77" s="5">
         <v>0.33</v>
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C78" s="5">
         <v>0.39</v>
@@ -2724,7 +2724,7 @@
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G78" s="5">
         <v>0.21</v>
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O78" s="5">
         <v>0.33</v>
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C79" s="5">
         <v>0.38</v>
@@ -2762,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G79" s="5">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,13 +2774,13 @@
         <v>3</v>
       </c>
       <c r="K79" s="5">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O79" s="5">
         <v>0.33</v>
@@ -2791,16 +2791,16 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C80" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G80" s="5">
         <v>0.19</v>
@@ -2809,10 +2809,10 @@
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K80" s="5">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
@@ -2838,10 +2838,10 @@
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G81" s="5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I81" s="3">
         <v>11</v>
@@ -2850,16 +2850,16 @@
         <v>15</v>
       </c>
       <c r="K81" s="5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O81" s="5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -2867,37 +2867,37 @@
         <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C82" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G82" s="5">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K82" s="5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O82" s="5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -2905,19 +2905,19 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C83" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G83" s="5">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I83" s="3">
         <v>13</v>
@@ -2932,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O83" s="5">
         <v>0.3</v>
@@ -2943,19 +2943,19 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" s="5">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="5">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,16 +2964,16 @@
         <v>16</v>
       </c>
       <c r="K84" s="5">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3053,22 +3053,22 @@
         <v>13</v>
       </c>
       <c r="G88" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K88" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O88" s="3">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3">
         <v>12.2</v>
@@ -3088,19 +3088,19 @@
         <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G89" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K89" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>2</v>
@@ -3117,16 +3117,16 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G90" s="3">
         <v>2</v>
@@ -3135,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K90" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M90" s="3">
         <v>3</v>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C91" s="3">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G91" s="3">
         <v>2</v>
@@ -3176,13 +3176,13 @@
         <v>7</v>
       </c>
       <c r="K91" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C92" s="3">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K92" s="3">
         <v>3</v>
@@ -3231,25 +3231,25 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="3">
-        <v>6</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G93" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="3">
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K93" s="3">
         <v>3</v>
@@ -3269,16 +3269,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -3307,16 +3307,16 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,17 +3345,17 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C96" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="E96" s="3">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="3">
-        <v>9</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G96" s="3">
         <v>1</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3386,13 +3386,13 @@
         <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>16.8</v>
+        <v>17.7</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K97" s="3">
         <v>1</v>
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>17</v>
+        <v>17.8</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -3459,10 +3459,10 @@
         <v>12</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" s="3">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
@@ -3497,10 +3497,10 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" s="3">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="3">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C107" s="3">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C108" s="3">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C109" s="3">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="3">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C111" s="3">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C112" s="3">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="3">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C115" s="3">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C116" s="3">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="3">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11511E8-AA00-44DB-B791-1824D1C44E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA240DF-1A63-41D3-8E81-01B04403790F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F21FE27-73FE-4CC4-A68F-E8470C7A8D07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD972742-1CC0-446D-BB58-D690ADA74EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>VSS</t>
   </si>
   <si>
+    <t>ISsoft</t>
+  </si>
+  <si>
     <t>Стрела</t>
-  </si>
-  <si>
-    <t>ISsoft</t>
   </si>
   <si>
     <t>ЛФК</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC54A37-4BE7-446C-90FC-CB120626CB98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185BF9C-4330-423E-8A1B-CC109A7C99D2}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3">
         <v>92.1</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3">
-        <v>88.1</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K6" s="3">
-        <v>87.5</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3">
         <v>86.6</v>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -839,10 +839,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
-        <v>186.9</v>
+        <v>187.9</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -868,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3">
-        <v>186.5</v>
+        <v>186.9</v>
       </c>
       <c r="I11" s="3">
         <v>9</v>
@@ -891,13 +891,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
         <v>185.9</v>
@@ -926,19 +926,19 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>185.4</v>
+        <v>185.3</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K13" s="3">
-        <v>80.7</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -955,19 +955,19 @@
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3">
-        <v>185.3</v>
+        <v>185.1</v>
       </c>
       <c r="I14" s="3">
         <v>12</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K14" s="3">
-        <v>79.900000000000006</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -984,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>185.1</v>
+        <v>184.8</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="5">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="5">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="5">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G27" s="5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="5">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="5">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="5">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="5">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="5">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1405,28 +1405,28 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3">
-        <v>74.2</v>
+        <v>76</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" s="3">
-        <v>50.8</v>
+        <v>53.1</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K37" s="3">
-        <v>48.5</v>
+        <v>49.9</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -1443,28 +1443,28 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3">
-        <v>74</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G38" s="3">
-        <v>53.8</v>
+        <v>55.9</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>16.2</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,37 +1481,37 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>73.8</v>
+        <v>74.3</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3">
-        <v>56.3</v>
+        <v>58.6</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K39" s="3">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O39" s="3">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,34 +1522,34 @@
         <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>71.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G40" s="3">
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="3">
+        <v>47.3</v>
+      </c>
+      <c r="M40" s="3">
+        <v>4</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="3">
-        <v>47.5</v>
-      </c>
-      <c r="M40" s="3">
-        <v>4</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="O40" s="3">
-        <v>13.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,34 +1560,34 @@
         <v>15</v>
       </c>
       <c r="C41" s="3">
-        <v>67.5</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="3">
-        <v>60.2</v>
+        <v>61.9</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K41" s="3">
-        <v>46</v>
+        <v>47.1</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O41" s="3">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1598,34 +1598,34 @@
         <v>11</v>
       </c>
       <c r="C42" s="3">
-        <v>66.7</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="3">
-        <v>60.5</v>
+        <v>62.4</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K42" s="3">
-        <v>45.8</v>
+        <v>46.1</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O42" s="3">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1636,34 +1636,34 @@
         <v>4</v>
       </c>
       <c r="C43" s="3">
-        <v>65.2</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="3">
-        <v>63.7</v>
+        <v>62.6</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43" s="3">
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O43" s="3">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,37 +1671,37 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" s="3">
-        <v>62.2</v>
+        <v>62.4</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="3">
-        <v>64.7</v>
+        <v>65</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K44" s="3">
-        <v>44.2</v>
+        <v>46</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O44" s="3">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1709,25 +1709,25 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
-        <v>61.5</v>
+        <v>61</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>66.2</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K45" s="3">
         <v>43.7</v>
@@ -1736,10 +1736,10 @@
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O45" s="3">
-        <v>13</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1750,34 +1750,34 @@
         <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>61.3</v>
+        <v>60.9</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G46" s="3">
-        <v>66.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O46" s="3">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1788,13 +1788,13 @@
         <v>9</v>
       </c>
       <c r="C47" s="3">
-        <v>57.2</v>
+        <v>56.3</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>67</v>
@@ -1803,10 +1803,10 @@
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3">
-        <v>43</v>
+        <v>42.6</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
@@ -1815,7 +1815,7 @@
         <v>4</v>
       </c>
       <c r="O47" s="3">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1826,16 +1826,16 @@
         <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G48" s="3">
-        <v>68.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
@@ -1844,16 +1844,16 @@
         <v>3</v>
       </c>
       <c r="K48" s="3">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O48" s="3">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1861,10 +1861,10 @@
         <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
@@ -1873,13 +1873,13 @@
         <v>9</v>
       </c>
       <c r="G49" s="3">
-        <v>72.2</v>
+        <v>70.3</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>41</v>
@@ -1891,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="3">
-        <v>11</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1899,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C50" s="3">
-        <v>49.7</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>80</v>
+        <v>78.3</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="3">
-        <v>37.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>18.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>15.8</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,25 +2015,25 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>15.7</v>
+        <v>14.3</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K55" s="3">
-        <v>16.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G56" s="3">
         <v>4</v>
@@ -2059,10 +2059,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K56" s="3">
-        <v>16.8</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2073,25 +2073,25 @@
         <v>15</v>
       </c>
       <c r="C57" s="3">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K57" s="3">
-        <v>16.8</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,28 +2099,28 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G58" s="3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K58" s="3">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -2140,16 +2140,16 @@
         <v>14</v>
       </c>
       <c r="G59" s="3">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K59" s="3">
-        <v>18</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3">
         <v>11.3</v>
@@ -2166,19 +2166,19 @@
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G60" s="3">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K60" s="3">
-        <v>18.3</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,28 +2186,28 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="3">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G61" s="3">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K61" s="3">
-        <v>19.2</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2218,13 +2218,13 @@
         <v>14</v>
       </c>
       <c r="C62" s="3">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G62" s="3">
         <v>2.2999999999999998</v>
@@ -2233,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K62" s="3">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,25 +2247,25 @@
         <v>16</v>
       </c>
       <c r="C63" s="3">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G63" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K63" s="3">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,16 +2273,16 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" s="3">
         <v>2</v>
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K64" s="3">
-        <v>22.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2302,10 +2302,10 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
@@ -2314,16 +2314,16 @@
         <v>6</v>
       </c>
       <c r="G65" s="3">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K65" s="3">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2331,28 +2331,28 @@
         <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2372,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>25.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,19 +2449,19 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C71" s="5">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2487,19 +2487,19 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G72" s="5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
@@ -2508,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="K72" s="5">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="O72" s="5">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -2525,28 +2525,28 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G73" s="5">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K73" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         <v>15</v>
       </c>
       <c r="O73" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2563,28 +2563,28 @@
         <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G74" s="5">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K74" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
@@ -2593,7 +2593,7 @@
         <v>13</v>
       </c>
       <c r="O74" s="5">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75" s="5">
         <v>0.45</v>
@@ -2610,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G75" s="5">
         <v>0.22</v>
@@ -2622,13 +2622,13 @@
         <v>4</v>
       </c>
       <c r="K75" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O75" s="5">
         <v>0.34</v>
@@ -2639,16 +2639,16 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C76" s="5">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G76" s="5">
         <v>0.22</v>
@@ -2657,10 +2657,10 @@
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K76" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
@@ -2669,7 +2669,7 @@
         <v>7</v>
       </c>
       <c r="O76" s="5">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C77" s="5">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
@@ -2695,16 +2695,16 @@
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K77" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O77" s="5">
         <v>0.33</v>
@@ -2715,19 +2715,19 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G78" s="5">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
@@ -2736,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O78" s="5">
         <v>0.33</v>
@@ -2753,19 +2753,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C79" s="5">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G79" s="5">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,13 +2774,13 @@
         <v>3</v>
       </c>
       <c r="K79" s="5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O79" s="5">
         <v>0.33</v>
@@ -2794,7 +2794,7 @@
         <v>11</v>
       </c>
       <c r="C80" s="5">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
@@ -2809,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K80" s="5">
         <v>0.47</v>
@@ -2818,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O80" s="5">
         <v>0.32</v>
@@ -2829,10 +2829,10 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
@@ -2847,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K81" s="5">
         <v>0.46</v>
@@ -2856,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O81" s="5">
         <v>0.32</v>
@@ -2867,19 +2867,19 @@
         <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G82" s="5">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
@@ -2897,7 +2897,7 @@
         <v>16</v>
       </c>
       <c r="O82" s="5">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -2905,16 +2905,16 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C83" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G83" s="5">
         <v>0.16</v>
@@ -2923,7 +2923,7 @@
         <v>13</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K83" s="5">
         <v>0.41</v>
@@ -2932,10 +2932,10 @@
         <v>13</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O83" s="5">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -2943,10 +2943,10 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -2955,22 +2955,22 @@
         <v>10</v>
       </c>
       <c r="G84" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K84" s="5">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O84" s="5">
         <v>0.28000000000000003</v>
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3053,25 +3053,25 @@
         <v>13</v>
       </c>
       <c r="G88" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K88" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -3079,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" s="3">
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3091,7 +3091,7 @@
         <v>14</v>
       </c>
       <c r="G89" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
@@ -3100,13 +3100,13 @@
         <v>12</v>
       </c>
       <c r="K89" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M89" s="3">
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3117,25 +3117,25 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C90" s="3">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G90" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="3">
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K90" s="3">
         <v>5</v>
@@ -3155,34 +3155,34 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="E91" s="3">
+        <v>4</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>4</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>4</v>
+      </c>
+      <c r="N91" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C91" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>4</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="3">
-        <v>2</v>
-      </c>
-      <c r="I91" s="3">
-        <v>4</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="3">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>4</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" s="3">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
@@ -3205,22 +3205,22 @@
         <v>12</v>
       </c>
       <c r="G92" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92" s="3">
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M92" s="3">
         <v>5</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O92" s="3">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C93" s="3">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G93" s="3">
         <v>2</v>
@@ -3249,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K93" s="3">
         <v>3</v>
@@ -3258,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C94" s="3">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
@@ -3287,16 +3287,16 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K94" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
@@ -3325,7 +3325,7 @@
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K95" s="3">
         <v>2</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C96" s="3">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
@@ -3363,16 +3363,16 @@
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K96" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" s="3">
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>17.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
@@ -3401,10 +3401,10 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K97" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" s="3">
         <v>10</v>
@@ -3424,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>17.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -3462,13 +3462,13 @@
         <v>14</v>
       </c>
       <c r="C99" s="3">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>12</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="3">
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101" s="3">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C105" s="3">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C106" s="3">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="3">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C108" s="3">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C109" s="3">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C110" s="3">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="3">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="3">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C113" s="3">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C114" s="3">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="3">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="3">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA240DF-1A63-41D3-8E81-01B04403790F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E130088-A0B5-44A1-A08C-9787E07E7D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD972742-1CC0-446D-BB58-D690ADA74EAA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6662BC1C-EAB2-4A5D-BA25-C887D5738C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,22 @@
     <t>Команда</t>
   </si>
   <si>
+    <t>SIRIUS</t>
+  </si>
+  <si>
     <t>Минск 7х</t>
   </si>
   <si>
-    <t>SIRIUS</t>
-  </si>
-  <si>
     <t>Eagles</t>
   </si>
   <si>
     <t>VSS</t>
   </si>
   <si>
+    <t>Стрела</t>
+  </si>
+  <si>
     <t>ISsoft</t>
-  </si>
-  <si>
-    <t>Стрела</t>
   </si>
   <si>
     <t>ЛФК</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185BF9C-4330-423E-8A1B-CC109A7C99D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3DE6E7-9AA8-4BD6-A4F6-6B5F3CE48920}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>43.1</v>
+        <v>41.1</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
         <v>92.1</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>41.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>189</v>
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
-        <v>87.5</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -723,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>188.8</v>
+        <v>188.3</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3">
-        <v>86.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3">
         <v>86.6</v>
@@ -775,13 +775,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>31.9</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>187.9</v>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3">
         <v>187.9</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>85.9</v>
@@ -839,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
         <v>187.9</v>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="3">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -891,13 +891,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>185.9</v>
@@ -906,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>81.400000000000006</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>81.099999999999994</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>19.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
@@ -984,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3">
-        <v>184.8</v>
+        <v>184.9</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -1022,10 +1022,10 @@
         <v>14</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="3">
-        <v>27.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="5">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="5">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="5">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G25" s="5">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="5">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="5">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="5">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="5">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G33" s="5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1405,37 +1405,37 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>76</v>
+        <v>78.8</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3">
-        <v>53.1</v>
+        <v>54.3</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K37" s="3">
-        <v>49.9</v>
+        <v>51.4</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O37" s="3">
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1446,34 +1446,34 @@
         <v>14</v>
       </c>
       <c r="C38" s="3">
-        <v>74.400000000000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3">
-        <v>55.9</v>
+        <v>54.8</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K38" s="3">
-        <v>48</v>
+        <v>49.4</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O38" s="3">
-        <v>16.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,37 +1481,37 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>74.3</v>
+        <v>75.5</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G39" s="3">
-        <v>58.6</v>
+        <v>57</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K39" s="3">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O39" s="3">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1519,37 +1519,37 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="3">
-        <v>71.099999999999994</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="3">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K40" s="3">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O40" s="3">
-        <v>15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,34 +1560,34 @@
         <v>15</v>
       </c>
       <c r="C41" s="3">
-        <v>71</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>61.9</v>
+        <v>61.8</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K41" s="3">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O41" s="3">
-        <v>14.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1595,37 +1595,37 @@
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3">
-        <v>69.900000000000006</v>
+        <v>70.5</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="3">
-        <v>62.4</v>
+        <v>62.1</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K42" s="3">
-        <v>46.1</v>
+        <v>47</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O42" s="3">
-        <v>13.7</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1633,19 +1633,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>65.400000000000006</v>
+        <v>67.8</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G43" s="3">
-        <v>62.6</v>
+        <v>64.3</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
@@ -1654,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="K43" s="3">
-        <v>46</v>
+        <v>45.4</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
@@ -1671,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
-        <v>62.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G44" s="3">
-        <v>65</v>
+        <v>65.3</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
@@ -1692,16 +1692,16 @@
         <v>14</v>
       </c>
       <c r="K44" s="3">
-        <v>46</v>
+        <v>44.8</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O44" s="3">
-        <v>13.4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1709,37 +1709,37 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3">
-        <v>65.400000000000006</v>
+        <v>65.3</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K45" s="3">
-        <v>43.7</v>
+        <v>44.4</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O45" s="3">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1750,34 +1750,34 @@
         <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>60.9</v>
+        <v>58.9</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G46" s="3">
-        <v>65.900000000000006</v>
+        <v>66.3</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K46" s="3">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" s="3">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1785,37 +1785,37 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3">
-        <v>56.3</v>
+        <v>58.5</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G47" s="3">
-        <v>67</v>
+        <v>68.8</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K47" s="3">
-        <v>42.6</v>
+        <v>42.1</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O47" s="3">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1823,34 +1823,34 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3">
-        <v>69.400000000000006</v>
+        <v>70.5</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K48" s="3">
-        <v>42.4</v>
+        <v>41.6</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O48" s="3">
         <v>12.1</v>
@@ -1864,34 +1864,34 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>49</v>
+        <v>50.9</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>70.3</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K49" s="3">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O49" s="3">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1899,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>47</v>
+        <v>45.1</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>78.3</v>
+        <v>79.8</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>8.3000000000000007</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>17.899999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>16.100000000000001</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,13 +2015,13 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G55" s="3">
         <v>4.0999999999999996</v>
@@ -2030,10 +2030,10 @@
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55" s="3">
-        <v>17</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2041,28 +2041,28 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C56" s="3">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" s="3">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K56" s="3">
-        <v>17.399999999999999</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,28 +2070,28 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G57" s="3">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K57" s="3">
-        <v>17.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,28 +2099,28 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58" s="3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K58" s="3">
-        <v>18.3</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,28 +2128,28 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C59" s="3">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G59" s="3">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K59" s="3">
-        <v>18.600000000000001</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,16 +2157,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="3">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G60" s="3">
         <v>3</v>
@@ -2175,10 +2175,10 @@
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K60" s="3">
-        <v>18.899999999999999</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" s="3">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G61" s="3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
@@ -2207,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="K61" s="3">
-        <v>20.100000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2215,10 +2215,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
@@ -2227,16 +2227,16 @@
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K62" s="3">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -2256,16 +2256,16 @@
         <v>11</v>
       </c>
       <c r="G63" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3">
-        <v>20.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,28 +2273,28 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G64" s="3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K64" s="3">
-        <v>21</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
@@ -2320,10 +2320,10 @@
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K65" s="3">
-        <v>21.7</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2334,25 +2334,25 @@
         <v>6</v>
       </c>
       <c r="C66" s="3">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K66" s="3">
-        <v>22.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2360,28 +2360,28 @@
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G67" s="3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K67" s="3">
-        <v>24</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,19 +2449,19 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G71" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" s="5">
         <v>0.48</v>
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G72" s="5">
         <v>0.26</v>
@@ -2508,16 +2508,16 @@
         <v>6</v>
       </c>
       <c r="K72" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O72" s="5">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="5">
         <v>0.48</v>
@@ -2537,13 +2537,13 @@
         <v>9</v>
       </c>
       <c r="G73" s="5">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K73" s="5">
         <v>0.57999999999999996</v>
@@ -2552,10 +2552,10 @@
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O73" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2566,22 +2566,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G74" s="5">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K74" s="5">
         <v>0.57999999999999996</v>
@@ -2590,10 +2590,10 @@
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O74" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2604,34 +2604,34 @@
         <v>10</v>
       </c>
       <c r="C75" s="5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E75" s="3">
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G75" s="5">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K75" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O75" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="5">
         <v>0.42</v>
@@ -2648,28 +2648,28 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G76" s="5">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I76" s="3">
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K76" s="5">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O76" s="5">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="5">
         <v>0.42</v>
@@ -2689,13 +2689,13 @@
         <v>12</v>
       </c>
       <c r="G77" s="5">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K77" s="5">
         <v>0.54</v>
@@ -2724,10 +2724,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G78" s="5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
@@ -2745,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="O78" s="5">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C79" s="5">
         <v>0.37</v>
@@ -2762,19 +2762,19 @@
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G79" s="5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K79" s="5">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
@@ -2783,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="O79" s="5">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C80" s="5">
         <v>0.37</v>
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G80" s="5">
         <v>0.19</v>
@@ -2809,19 +2809,19 @@
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K80" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O80" s="5">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -2829,16 +2829,16 @@
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C81" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G81" s="5">
         <v>0.18</v>
@@ -2847,19 +2847,19 @@
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K81" s="5">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O81" s="5">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -2867,34 +2867,34 @@
         <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G82" s="5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K82" s="5">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O82" s="5">
         <v>0.31</v>
@@ -2905,16 +2905,16 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="5">
         <v>0.16</v>
@@ -2926,7 +2926,7 @@
         <v>16</v>
       </c>
       <c r="K83" s="5">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
@@ -2935,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="O83" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -2943,10 +2943,10 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -2955,7 +2955,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="5">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,13 +2964,13 @@
         <v>9</v>
       </c>
       <c r="K84" s="5">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O84" s="5">
         <v>0.28000000000000003</v>
@@ -3041,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G90" s="3">
         <v>3</v>
@@ -3138,13 +3138,13 @@
         <v>10</v>
       </c>
       <c r="K90" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M90" s="3">
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C91" s="3">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G91" s="3">
         <v>3</v>
@@ -3173,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K91" s="3">
         <v>5</v>
@@ -3182,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" s="3">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="3">
         <v>4</v>
@@ -3234,13 +3234,13 @@
         <v>16</v>
       </c>
       <c r="C93" s="3">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G93" s="3">
         <v>2</v>
@@ -3249,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K93" s="3">
         <v>3</v>
@@ -3258,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,25 +3269,25 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" s="3">
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3310,22 +3310,22 @@
         <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" s="3">
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K95" s="3">
         <v>2</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,26 +3345,26 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E96" s="3">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3">
+        <v>9</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="3">
-        <v>15.7</v>
-      </c>
-      <c r="E96" s="3">
-        <v>9</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="I96" s="3">
-        <v>9</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K96" s="3">
         <v>2</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="3">
-        <v>16.100000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K97" s="3">
         <v>2</v>
@@ -3424,22 +3424,22 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>17.600000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="3">
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -3462,13 +3462,13 @@
         <v>14</v>
       </c>
       <c r="C99" s="3">
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C100" s="3">
-        <v>19</v>
+        <v>18.3</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3515,16 +3515,16 @@
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="3">
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>19.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="3">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="3">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C108" s="3">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C109" s="3">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3660,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="3">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="3">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C113" s="3">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="3">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" s="3">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="3">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="3">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E130088-A0B5-44A1-A08C-9787E07E7D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF63D0C-F87B-4EDD-A077-41F173B52035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6662BC1C-EAB2-4A5D-BA25-C887D5738C30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E39C98D5-7785-4CA2-A4FF-4732FE32A2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>VSS</t>
   </si>
   <si>
+    <t>ISsoft</t>
+  </si>
+  <si>
     <t>Стрела</t>
-  </si>
-  <si>
-    <t>ISsoft</t>
   </si>
   <si>
     <t>ЛФК</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3DE6E7-9AA8-4BD6-A4F6-6B5F3CE48920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF9C8D5-5CB9-4C91-A907-9C5988CAEC87}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>41.1</v>
+        <v>41.6</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3">
         <v>92.1</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>40.200000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>90</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>33.700000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -697,16 +697,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>189</v>
+        <v>188.5</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3">
-        <v>88.8</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>32.5</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -761,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K7" s="3">
-        <v>86.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -775,25 +775,25 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>187.9</v>
+        <v>188.1</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8" s="3">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>187.9</v>
@@ -819,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K9" s="3">
-        <v>85.9</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -833,13 +833,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3">
         <v>187.9</v>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>84.3</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -862,16 +862,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
-        <v>186.9</v>
+        <v>185.9</v>
       </c>
       <c r="I11" s="3">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="3">
-        <v>82.6</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -897,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
-        <v>185.9</v>
+        <v>185.3</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
@@ -926,10 +926,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3">
-        <v>185.3</v>
+        <v>185.1</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
@@ -949,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3">
         <v>185.1</v>
@@ -978,16 +978,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>16</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3">
-        <v>184.9</v>
+        <v>185.1</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="5">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="5">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1134,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="5">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="5">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" s="5">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="5">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="5">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1305,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="5">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,13 +1408,13 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>78.8</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G37" s="3">
         <v>54.3</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="K37" s="3">
-        <v>51.4</v>
+        <v>51.1</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="O37" s="3">
-        <v>17.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,19 +1443,19 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>76.400000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -1464,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="O38" s="3">
-        <v>17.100000000000001</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,19 +1481,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="3">
-        <v>75.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G39" s="3">
-        <v>57</v>
+        <v>58.8</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
@@ -1502,16 +1502,16 @@
         <v>5</v>
       </c>
       <c r="K39" s="3">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O39" s="3">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1519,37 +1519,37 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C40" s="3">
-        <v>71.599999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>61.6</v>
+        <v>61.1</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K40" s="3">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O40" s="3">
-        <v>15.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1557,25 +1557,25 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>71.099999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G41" s="3">
-        <v>61.8</v>
+        <v>62</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K41" s="3">
         <v>47.4</v>
@@ -1587,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="O41" s="3">
-        <v>15</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1595,19 +1595,19 @@
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3">
-        <v>70.5</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="3">
-        <v>62.1</v>
+        <v>63.4</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
@@ -1616,16 +1616,16 @@
         <v>3</v>
       </c>
       <c r="K42" s="3">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O42" s="3">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1636,34 +1636,34 @@
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>67.8</v>
+        <v>69</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="3">
-        <v>64.3</v>
+        <v>63.6</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K43" s="3">
-        <v>45.4</v>
+        <v>44.7</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43" s="3">
-        <v>13.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,16 +1671,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3">
-        <v>64.400000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G44" s="3">
         <v>65.3</v>
@@ -1689,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K44" s="3">
-        <v>44.8</v>
+        <v>44.1</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O44" s="3">
-        <v>12.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1712,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>60</v>
+        <v>60.7</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>65.3</v>
+        <v>66.3</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
@@ -1730,13 +1730,13 @@
         <v>13</v>
       </c>
       <c r="K45" s="3">
-        <v>44.4</v>
+        <v>43.6</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>12.8</v>
@@ -1747,37 +1747,37 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3">
-        <v>58.9</v>
+        <v>59.6</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" s="3">
-        <v>66.3</v>
+        <v>66.8</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K46" s="3">
-        <v>44.1</v>
+        <v>43.4</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O46" s="3">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1785,10 +1785,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>58.5</v>
+        <v>59.1</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="K47" s="3">
-        <v>42.1</v>
+        <v>41.7</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="3">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1826,25 +1826,25 @@
         <v>9</v>
       </c>
       <c r="C48" s="3">
-        <v>54.5</v>
+        <v>54.8</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>70.5</v>
+        <v>71.7</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K48" s="3">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="3">
-        <v>12.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,25 +1864,25 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>50.9</v>
+        <v>51.4</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G49" s="3">
-        <v>72.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" s="3">
-        <v>41.1</v>
+        <v>41.6</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="3">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>45.1</v>
+        <v>43.8</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,16 +1911,16 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>79.8</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K50" s="3">
-        <v>40</v>
+        <v>41.3</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>19.600000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -2024,16 +2024,16 @@
         <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K55" s="3">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2044,25 +2044,25 @@
         <v>15</v>
       </c>
       <c r="C56" s="3">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="3">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K56" s="3">
-        <v>16.899999999999999</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="3">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -2082,13 +2082,13 @@
         <v>12</v>
       </c>
       <c r="G57" s="3">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>17.600000000000001</v>
@@ -2102,25 +2102,25 @@
         <v>5</v>
       </c>
       <c r="C58" s="3">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G58" s="3">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K58" s="3">
-        <v>18.899999999999999</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2131,16 +2131,16 @@
         <v>14</v>
       </c>
       <c r="C59" s="3">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G59" s="3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
@@ -2157,28 +2157,28 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G60" s="3">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K60" s="3">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,16 +2186,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G61" s="3">
         <v>3</v>
@@ -2204,7 +2204,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K61" s="3">
         <v>20</v>
@@ -2215,10 +2215,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
@@ -2227,16 +2227,16 @@
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K62" s="3">
-        <v>20.6</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3">
-        <v>9.8000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -2262,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K63" s="3">
-        <v>21</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,28 +2273,28 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G64" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K64" s="3">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2311,19 +2311,19 @@
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" s="3">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K65" s="3">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="3">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2352,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="K66" s="3">
-        <v>24</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -2378,10 +2378,10 @@
         <v>14</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>24.1</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="5">
         <v>0.49</v>
@@ -2458,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G71" s="5">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="5">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2496,10 +2496,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G72" s="5">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="5">
         <v>0.48</v>
@@ -2534,16 +2534,16 @@
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G73" s="5">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K73" s="5">
         <v>0.57999999999999996</v>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O73" s="5">
         <v>0.39</v>
@@ -2566,13 +2566,13 @@
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G74" s="5">
         <v>0.25</v>
@@ -2581,19 +2581,19 @@
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K74" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O74" s="5">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2610,16 +2610,16 @@
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G75" s="5">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K75" s="5">
         <v>0.56999999999999995</v>
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O75" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2639,16 +2639,16 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" s="5">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G76" s="5">
         <v>0.23</v>
@@ -2657,19 +2657,19 @@
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K76" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O76" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C77" s="5">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
@@ -2698,7 +2698,7 @@
         <v>13</v>
       </c>
       <c r="K77" s="5">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
@@ -2707,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="O77" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -2736,16 +2736,16 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O78" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -2756,7 +2756,7 @@
         <v>11</v>
       </c>
       <c r="C79" s="5">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
@@ -2765,7 +2765,7 @@
         <v>16</v>
       </c>
       <c r="G79" s="5">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,16 +2774,16 @@
         <v>11</v>
       </c>
       <c r="K79" s="5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O79" s="5">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G80" s="5">
         <v>0.19</v>
@@ -2809,10 +2809,10 @@
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K80" s="5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
@@ -2821,7 +2821,7 @@
         <v>9</v>
       </c>
       <c r="O80" s="5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -2838,19 +2838,19 @@
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G81" s="5">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I81" s="3">
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K81" s="5">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
@@ -2879,13 +2879,13 @@
         <v>15</v>
       </c>
       <c r="G82" s="5">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K82" s="5">
         <v>0.46</v>
@@ -2894,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O82" s="5">
         <v>0.31</v>
@@ -2905,10 +2905,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C83" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
@@ -2917,7 +2917,7 @@
         <v>4</v>
       </c>
       <c r="G83" s="5">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I83" s="3">
         <v>13</v>
@@ -2943,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C84" s="5">
         <v>0.34</v>
@@ -2955,7 +2955,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="K84" s="5">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="O84" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3091,13 +3091,13 @@
         <v>14</v>
       </c>
       <c r="G89" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>7</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3120,25 +3120,25 @@
         <v>10</v>
       </c>
       <c r="C90" s="3">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G90" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90" s="3">
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K90" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M90" s="3">
         <v>3</v>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C91" s="3">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>3</v>
@@ -3173,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>5</v>
@@ -3193,16 +3193,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G92" s="3">
         <v>3</v>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K92" s="3">
         <v>4</v>
@@ -3231,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" s="3">
         <v>14.8</v>
@@ -3240,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G93" s="3">
         <v>2</v>
@@ -3249,10 +3249,10 @@
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K93" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M93" s="3">
         <v>6</v>
@@ -3269,10 +3269,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C94" s="3">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="3">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
@@ -3345,10 +3345,10 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="3">
-        <v>16.100000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" s="3">
-        <v>16.399999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>16.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -3459,16 +3459,16 @@
         <v>12</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C99" s="3">
-        <v>17.899999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K99" s="3">
         <v>1</v>
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>18.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101" s="3">
-        <v>18.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3605,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="3">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C107" s="3">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C109" s="3">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="3">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C111" s="3">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C112" s="3">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="3">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3693,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="3">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C116" s="3">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3723,10 @@
         <v>13</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C117" s="3">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="3">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF63D0C-F87B-4EDD-A077-41F173B52035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4516735F-68D4-4DB7-A779-DCD87DE5FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E39C98D5-7785-4CA2-A4FF-4732FE32A2B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F9B0471-E4EE-4252-A540-D8504CB9D5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
     <t>VSS</t>
   </si>
   <si>
+    <t>Стрела</t>
+  </si>
+  <si>
     <t>ISsoft</t>
-  </si>
-  <si>
-    <t>Стрела</t>
   </si>
   <si>
     <t>ЛФК</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF9C8D5-5CB9-4C91-A907-9C5988CAEC87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8662D17B-3501-4781-9655-441BD03148DB}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
         <v>92.1</v>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3">
         <v>88.5</v>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>32.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -862,13 +862,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3">
         <v>185.9</v>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="3">
-        <v>82.8</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -920,13 +920,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3">
         <v>185.1</v>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>81.400000000000006</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
@@ -978,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>16.100000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="3">
-        <v>185.1</v>
+        <v>183.9</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="5">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G21" s="5">
         <v>0.64</v>
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="5">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G24" s="5">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26" s="5">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27" s="5">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="5">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="5">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1274,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G30" s="5">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,10 +1294,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G31" s="5">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,16 +1408,16 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>80.599999999999994</v>
+        <v>80.5</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3">
-        <v>54.3</v>
+        <v>53.2</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -1426,16 +1426,16 @@
         <v>11</v>
       </c>
       <c r="K37" s="3">
-        <v>51.1</v>
+        <v>50.6</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O37" s="3">
-        <v>17.100000000000001</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1446,16 +1446,16 @@
         <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>74.599999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G38" s="3">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -1464,16 +1464,16 @@
         <v>15</v>
       </c>
       <c r="K38" s="3">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O38" s="3">
-        <v>16.8</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1484,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="3">
-        <v>74.599999999999994</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -1499,19 +1499,19 @@
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K39" s="3">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,25 +1522,25 @@
         <v>14</v>
       </c>
       <c r="C40" s="3">
-        <v>73.7</v>
+        <v>75</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3">
-        <v>61.1</v>
+        <v>60.1</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K40" s="3">
-        <v>47.9</v>
+        <v>48.6</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
@@ -1549,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="O40" s="3">
-        <v>16</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,34 +1560,34 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>71.400000000000006</v>
+        <v>72.8</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="3">
-        <v>62</v>
+        <v>61.6</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K41" s="3">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O41" s="3">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1598,16 +1598,16 @@
         <v>15</v>
       </c>
       <c r="C42" s="3">
-        <v>70.599999999999994</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>63.4</v>
+        <v>61.9</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
@@ -1616,13 +1616,13 @@
         <v>3</v>
       </c>
       <c r="K42" s="3">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O42" s="3">
         <v>15.1</v>
@@ -1636,34 +1636,34 @@
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>69</v>
+        <v>67.7</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3">
-        <v>63.6</v>
+        <v>65.5</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K43" s="3">
-        <v>44.7</v>
+        <v>46.2</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O43" s="3">
-        <v>14</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,37 +1671,37 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
-        <v>64.900000000000006</v>
+        <v>65.3</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G44" s="3">
-        <v>65.3</v>
+        <v>65.7</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K44" s="3">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O44" s="3">
-        <v>13</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1712,34 +1712,34 @@
         <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>60.7</v>
+        <v>62.1</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3">
-        <v>66.3</v>
+        <v>66.8</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K45" s="3">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O45" s="3">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1747,10 +1747,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="3">
-        <v>66.8</v>
+        <v>68.8</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
@@ -1768,16 +1768,16 @@
         <v>14</v>
       </c>
       <c r="K46" s="3">
-        <v>43.4</v>
+        <v>42.4</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O46" s="3">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1785,10 +1785,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3">
-        <v>59.1</v>
+        <v>57.8</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
@@ -1797,16 +1797,16 @@
         <v>14</v>
       </c>
       <c r="G47" s="3">
-        <v>68.8</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="3">
-        <v>12</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1826,25 +1826,25 @@
         <v>9</v>
       </c>
       <c r="C48" s="3">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3">
-        <v>71.7</v>
+        <v>73</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K48" s="3">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="3">
-        <v>12</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,25 +1864,25 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>51.4</v>
+        <v>50.8</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>73.599999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K49" s="3">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="3">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,16 +1911,16 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>78.400000000000006</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K50" s="3">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="3">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -2024,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
@@ -2033,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="K55" s="3">
-        <v>17.100000000000001</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2041,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -2059,10 +2059,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K56" s="3">
-        <v>17.3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57" s="3">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -2088,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K57" s="3">
-        <v>17.600000000000001</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C58" s="3">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
@@ -2111,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="3">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
@@ -2120,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="K58" s="3">
-        <v>19.100000000000001</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3">
         <v>3.4</v>
@@ -2149,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="K59" s="3">
-        <v>19.100000000000001</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,28 +2157,28 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K60" s="3">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,10 +2186,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
@@ -2198,16 +2198,16 @@
         <v>3</v>
       </c>
       <c r="G61" s="3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K61" s="3">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
@@ -2227,13 +2227,13 @@
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K62" s="3">
         <v>20.100000000000001</v>
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -2256,13 +2256,13 @@
         <v>11</v>
       </c>
       <c r="G63" s="3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3">
         <v>20.399999999999999</v>
@@ -2273,10 +2273,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3">
-        <v>8.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
@@ -2291,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K64" s="3">
         <v>20.6</v>
@@ -2302,28 +2302,28 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" s="3">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K65" s="3">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66" s="3">
-        <v>7.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2343,16 +2343,16 @@
         <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="O71" s="5">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2496,25 +2496,25 @@
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72" s="5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K72" s="5">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O72" s="5">
         <v>0.39</v>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="5">
         <v>0.48</v>
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G73" s="5">
         <v>0.25</v>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K73" s="5">
         <v>0.57999999999999996</v>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O73" s="5">
         <v>0.39</v>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G74" s="5">
         <v>0.25</v>
@@ -2581,16 +2581,16 @@
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K74" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O74" s="5">
         <v>0.38</v>
@@ -2604,13 +2604,13 @@
         <v>10</v>
       </c>
       <c r="C75" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E75" s="3">
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" s="5">
         <v>0.25</v>
@@ -2619,19 +2619,19 @@
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K75" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M75" s="3">
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O75" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2639,28 +2639,28 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" s="5">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G76" s="5">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I76" s="3">
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K76" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
@@ -2669,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="O76" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2680,16 +2680,16 @@
         <v>3</v>
       </c>
       <c r="C77" s="5">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G77" s="5">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
@@ -2698,13 +2698,13 @@
         <v>13</v>
       </c>
       <c r="K77" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O77" s="5">
         <v>0.34</v>
@@ -2715,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C78" s="5">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -2736,16 +2736,16 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O78" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -2753,19 +2753,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" s="5">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" s="5">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="5">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G80" s="5">
         <v>0.19</v>
@@ -2809,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K80" s="5">
         <v>0.47</v>
@@ -2832,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
@@ -2847,16 +2847,16 @@
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K81" s="5">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O81" s="5">
         <v>0.31</v>
@@ -2876,25 +2876,25 @@
         <v>12</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G82" s="5">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K82" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O82" s="5">
         <v>0.31</v>
@@ -2908,16 +2908,16 @@
         <v>4</v>
       </c>
       <c r="C83" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G83" s="5">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I83" s="3">
         <v>13</v>
@@ -2926,7 +2926,7 @@
         <v>16</v>
       </c>
       <c r="K83" s="5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
@@ -2943,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="5">
         <v>0.34</v>
@@ -2952,10 +2952,10 @@
         <v>14</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G84" s="5">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="K84" s="5">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="O84" s="5">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K88" s="3">
         <v>8</v>
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="3">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3097,16 +3097,16 @@
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K89" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M89" s="3">
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
@@ -3135,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K90" s="3">
         <v>7</v>
@@ -3144,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C91" s="3">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G91" s="3">
         <v>3</v>
@@ -3173,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K91" s="3">
         <v>5</v>
@@ -3182,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>16</v>
       </c>
       <c r="C92" s="3">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G92" s="3">
         <v>3</v>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="3">
         <v>4</v>
@@ -3234,22 +3234,22 @@
         <v>15</v>
       </c>
       <c r="C93" s="3">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G93" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" s="3">
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K93" s="3">
         <v>4</v>
@@ -3269,25 +3269,25 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" s="3">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G94" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" s="3">
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
@@ -3325,7 +3325,7 @@
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K95" s="3">
         <v>2</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K96" s="3">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K97" s="3">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>16.899999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -3439,16 +3439,16 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K98" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98" s="3">
         <v>11</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>11</v>
       </c>
       <c r="C99" s="3">
-        <v>17.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="3">
         <v>12</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K99" s="3">
         <v>1</v>
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>18.100000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>13</v>
       </c>
       <c r="C101" s="3">
-        <v>18.3</v>
+        <v>19.5</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3605,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="3">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="3">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C108" s="3">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C109" s="3">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C110" s="3">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3660,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="3">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="3">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="3">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C114" s="3">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C115" s="3">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C116" s="3">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="3">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="3">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4516735F-68D4-4DB7-A779-DCD87DE5FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC58097-B6E2-4BE3-9AAA-57B6CDADC126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F9B0471-E4EE-4252-A540-D8504CB9D5F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76F4F2F0-B6C8-40B6-8CBA-C5BC577E88B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>Эра-Недвижимости плюс</t>
   </si>
   <si>
+    <t>Mapogo males</t>
+  </si>
+  <si>
     <t>Грушвиль</t>
-  </si>
-  <si>
-    <t>Mapogo males</t>
   </si>
   <si>
     <t>БГУФК</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8662D17B-3501-4781-9655-441BD03148DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2E2B67-2BEC-4FD2-9010-B3F7471521F0}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -639,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="3">
-        <v>189.9</v>
+        <v>190.3</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -665,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3">
-        <v>189.6</v>
+        <v>189.5</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -761,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="3">
-        <v>87.5</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -842,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>187.9</v>
+        <v>187.8</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>84.1</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>28.4</v>
+        <v>26.9</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -877,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="3">
-        <v>82.3</v>
+        <v>82.9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3">
-        <v>185.3</v>
+        <v>185.6</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3">
-        <v>81.599999999999994</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,22 +920,22 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>185.1</v>
+        <v>185.3</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K13" s="3">
         <v>81.599999999999994</v>
@@ -949,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3">
         <v>185.1</v>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="3">
-        <v>80.7</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>16.399999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="3">
-        <v>183.9</v>
+        <v>184.1</v>
       </c>
       <c r="I15" s="3">
         <v>13</v>
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="3">
-        <v>79.5</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>182</v>
+        <v>182.7</v>
       </c>
       <c r="I16" s="3">
         <v>14</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5">
         <v>0.64</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="5">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5">
         <v>0.51</v>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G25" s="5">
         <v>0.5</v>
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G27" s="5">
         <v>0.44</v>
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28" s="5">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="5">
         <v>0.42</v>
@@ -1274,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G31" s="5">
         <v>0.4</v>
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G32" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="5">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3">
-        <v>80.5</v>
+        <v>82.3</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="3">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="K37" s="3">
-        <v>50.6</v>
+        <v>49.9</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="O37" s="3">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3">
-        <v>76.3</v>
+        <v>75.5</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="3">
-        <v>54.5</v>
+        <v>54.8</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -1464,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="O38" s="3">
-        <v>16.899999999999999</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>75.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -1493,16 +1493,16 @@
         <v>3</v>
       </c>
       <c r="G39" s="3">
-        <v>58.8</v>
+        <v>58.5</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K39" s="3">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1519,10 +1519,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40" s="3">
-        <v>75</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -1531,25 +1531,25 @@
         <v>12</v>
       </c>
       <c r="G40" s="3">
-        <v>60.1</v>
+        <v>59.5</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
-        <v>48.6</v>
+        <v>47.9</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O40" s="3">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,25 +1560,25 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>72.8</v>
+        <v>71.5</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>61.6</v>
+        <v>62.5</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K41" s="3">
-        <v>47.1</v>
+        <v>47.8</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="O41" s="3">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1598,25 +1598,25 @@
         <v>15</v>
       </c>
       <c r="C42" s="3">
-        <v>69.400000000000006</v>
+        <v>68.7</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G42" s="3">
-        <v>61.9</v>
+        <v>62.5</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K42" s="3">
-        <v>46.9</v>
+        <v>46.2</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
@@ -1625,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="O42" s="3">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>67.7</v>
+        <v>66.5</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
@@ -1645,16 +1645,16 @@
         <v>7</v>
       </c>
       <c r="G43" s="3">
-        <v>65.5</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K43" s="3">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
@@ -1663,7 +1663,7 @@
         <v>8</v>
       </c>
       <c r="O43" s="3">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1674,31 +1674,31 @@
         <v>8</v>
       </c>
       <c r="C44" s="3">
-        <v>65.3</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44" s="3">
-        <v>65.7</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K44" s="3">
-        <v>43.9</v>
+        <v>45.4</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O44" s="3">
         <v>13.1</v>
@@ -1712,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>62.1</v>
+        <v>62.6</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45" s="3">
-        <v>66.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
@@ -1739,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="O45" s="3">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
@@ -1759,16 +1759,16 @@
         <v>6</v>
       </c>
       <c r="G46" s="3">
-        <v>68.8</v>
+        <v>67.8</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
-        <v>42.4</v>
+        <v>42.8</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="O46" s="3">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1794,10 +1794,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G47" s="3">
-        <v>69.400000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="3">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1826,25 +1826,25 @@
         <v>9</v>
       </c>
       <c r="C48" s="3">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G48" s="3">
-        <v>73</v>
+        <v>72.2</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K48" s="3">
-        <v>41.3</v>
+        <v>41.7</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="3">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>73.7</v>
+        <v>73.5</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
@@ -1882,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="K49" s="3">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>43.7</v>
+        <v>44.3</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,16 +1911,16 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>79.099999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K50" s="3">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,16 +1995,16 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K54" s="3">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2012,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="3">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -2024,16 +2024,16 @@
         <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K55" s="3">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2041,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C56" s="3">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -2053,16 +2053,16 @@
         <v>9</v>
       </c>
       <c r="G56" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K56" s="3">
-        <v>17</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -2088,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K57" s="3">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3">
         <v>12</v>
@@ -2108,19 +2108,19 @@
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58" s="3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K58" s="3">
-        <v>18.3</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C59" s="3">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -2140,16 +2140,16 @@
         <v>13</v>
       </c>
       <c r="G59" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K59" s="3">
-        <v>18.5</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,28 +2157,28 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K60" s="3">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="3">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
@@ -2198,16 +2198,16 @@
         <v>3</v>
       </c>
       <c r="G61" s="3">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K61" s="3">
-        <v>20.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>10.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>20.100000000000001</v>
@@ -2244,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3">
         <v>9.6</v>
@@ -2256,16 +2256,16 @@
         <v>11</v>
       </c>
       <c r="G63" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K63" s="3">
-        <v>20.399999999999999</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2273,10 +2273,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
@@ -2285,16 +2285,16 @@
         <v>6</v>
       </c>
       <c r="G64" s="3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K64" s="3">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="3">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
@@ -2314,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="G65" s="3">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="K65" s="3">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="3">
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
@@ -2352,7 +2352,7 @@
         <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2372,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="K67" s="3">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="5">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2470,16 +2470,16 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O71" s="5">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72" s="5">
         <v>0.48</v>
@@ -2508,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="K72" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="5">
         <v>0.48</v>
@@ -2534,16 +2534,16 @@
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G73" s="5">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K73" s="5">
         <v>0.57999999999999996</v>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O73" s="5">
         <v>0.39</v>
@@ -2566,22 +2566,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G74" s="5">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K74" s="5">
         <v>0.57999999999999996</v>
@@ -2604,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="5">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E75" s="3">
         <v>5</v>
@@ -2613,13 +2613,13 @@
         <v>14</v>
       </c>
       <c r="G75" s="5">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K75" s="5">
         <v>0.57999999999999996</v>
@@ -2631,7 +2631,7 @@
         <v>8</v>
       </c>
       <c r="O75" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2642,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="5">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
@@ -2651,13 +2651,13 @@
         <v>12</v>
       </c>
       <c r="G76" s="5">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I76" s="3">
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K76" s="5">
         <v>0.57999999999999996</v>
@@ -2669,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="O76" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77" s="5">
         <v>0.4</v>
@@ -2689,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="G77" s="5">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K77" s="5">
         <v>0.56999999999999995</v>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O77" s="5">
         <v>0.34</v>
@@ -2715,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C78" s="5">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="G78" s="5">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="O78" s="5">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -2753,19 +2753,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C79" s="5">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" s="5">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2780,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O79" s="5">
         <v>0.33</v>
@@ -2800,16 +2800,16 @@
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I80" s="3">
+        <v>10</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="I80" s="3">
-        <v>10</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="K80" s="5">
         <v>0.47</v>
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="O81" s="5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -2870,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="5">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
@@ -2879,13 +2879,13 @@
         <v>5</v>
       </c>
       <c r="G82" s="5">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K82" s="5">
         <v>0.45</v>
@@ -2905,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C83" s="5">
         <v>0.35</v>
@@ -2923,10 +2923,10 @@
         <v>13</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K83" s="5">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
@@ -2943,10 +2943,10 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C84" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -2955,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="G84" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I84" s="3">
         <v>14</v>
@@ -2964,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="K84" s="5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
@@ -3044,34 +3044,34 @@
         <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K88" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -3082,22 +3082,22 @@
         <v>4</v>
       </c>
       <c r="C89" s="3">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G89" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K89" s="3">
         <v>8</v>
@@ -3106,10 +3106,10 @@
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -3138,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="K90" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M90" s="3">
         <v>3</v>
@@ -3155,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C91" s="3">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G91" s="3">
         <v>3</v>
@@ -3193,16 +3193,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C92" s="3">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G92" s="3">
         <v>3</v>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K92" s="3">
         <v>4</v>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O92" s="3">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
@@ -3249,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K93" s="3">
         <v>4</v>
@@ -3258,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3310,13 +3310,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
@@ -3325,16 +3325,16 @@
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K95" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95" s="3">
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,34 +3345,34 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="3">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G96" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="3">
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K96" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M96" s="3">
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="3">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -3401,16 +3401,16 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K97" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M97" s="3">
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>17.399999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K98" s="3">
         <v>2</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="3">
-        <v>17.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
@@ -3477,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K99" s="3">
         <v>1</v>
@@ -3497,25 +3497,25 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" s="3">
-        <v>18.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" s="3">
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K100" s="3">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101" s="3">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3605,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="3">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="3">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" s="3">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C110" s="3">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3660,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="3">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" s="3">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114" s="3">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="3">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="3">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3723,10 @@
         <v>13</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="3">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,10 +3734,10 @@
         <v>14</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C118" s="3">
-        <v>240</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC58097-B6E2-4BE3-9AAA-57B6CDADC126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23BD94B0-2A8D-426E-9D76-E75FFCDCA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76F4F2F0-B6C8-40B6-8CBA-C5BC577E88B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B99AE6D-806A-4CFF-9FB3-70F05DAB208D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>VSS</t>
   </si>
   <si>
+    <t>ISsoft</t>
+  </si>
+  <si>
+    <t>ЛФК</t>
+  </si>
+  <si>
     <t>Стрела</t>
-  </si>
-  <si>
-    <t>ISsoft</t>
-  </si>
-  <si>
-    <t>ЛФК</t>
   </si>
   <si>
     <t>GOLDEN HILL</t>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2E2B67-2BEC-4FD2-9010-B3F7471521F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D984D8E-3C2E-4CBF-85D8-B61E4D80972B}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3">
         <v>92.1</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>40.299999999999997</v>
+        <v>40.4</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="3">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5" s="3">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>188.3</v>
+        <v>188.4</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -746,13 +746,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>32.299999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3">
         <v>188.2</v>
@@ -764,7 +764,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="3">
-        <v>87.3</v>
+        <v>87.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>32.299999999999997</v>
+        <v>31.1</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>31.1</v>
+        <v>29.9</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>86.4</v>
@@ -842,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>187.8</v>
+        <v>187.9</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>83.9</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
         <v>185.9</v>
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>24.3</v>
+        <v>25.1</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -900,16 +900,16 @@
         <v>11</v>
       </c>
       <c r="G12" s="3">
-        <v>185.6</v>
+        <v>185.7</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3">
-        <v>81.900000000000006</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3">
-        <v>81.599999999999994</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -949,13 +949,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3">
         <v>185.1</v>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="3">
-        <v>81.099999999999994</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>14.4</v>
+        <v>15.2</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="5">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="5">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="5">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="5">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="5">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="5">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G28" s="5">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1274,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G30" s="5">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31" s="5">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="5">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,16 +1408,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="3">
-        <v>82.3</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" s="3">
-        <v>53.3</v>
+        <v>55</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="K37" s="3">
-        <v>49.9</v>
+        <v>50.5</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="O37" s="3">
-        <v>17.3</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3">
-        <v>75.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="3">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -1464,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="3">
-        <v>48.8</v>
+        <v>49.3</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="O38" s="3">
-        <v>16.600000000000001</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>74.400000000000006</v>
+        <v>74.7</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -1493,16 +1493,16 @@
         <v>3</v>
       </c>
       <c r="G39" s="3">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39" s="3">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1519,10 +1519,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3">
-        <v>73.599999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -1531,13 +1531,13 @@
         <v>12</v>
       </c>
       <c r="G40" s="3">
-        <v>59.5</v>
+        <v>60</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40" s="3">
         <v>47.9</v>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="O40" s="3">
-        <v>15.8</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>71.5</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G41" s="3">
-        <v>62.5</v>
+        <v>60.5</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="K41" s="3">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="O41" s="3">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1598,25 +1598,25 @@
         <v>15</v>
       </c>
       <c r="C42" s="3">
-        <v>68.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>62.5</v>
+        <v>62.9</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K42" s="3">
-        <v>46.2</v>
+        <v>46.8</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
@@ -1633,19 +1633,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>66.5</v>
+        <v>68.2</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="3">
-        <v>64.099999999999994</v>
+        <v>64.3</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
@@ -1654,16 +1654,16 @@
         <v>12</v>
       </c>
       <c r="K43" s="3">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43" s="3">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1671,25 +1671,25 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>65.900000000000006</v>
+        <v>66.5</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" s="3">
-        <v>66.400000000000006</v>
+        <v>65.7</v>
       </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K44" s="3">
         <v>45.4</v>
@@ -1701,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="O44" s="3">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1712,34 +1712,34 @@
         <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>62.6</v>
+        <v>60.6</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3">
-        <v>67.099999999999994</v>
+        <v>67</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K45" s="3">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O45" s="3">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1747,28 +1747,28 @@
         <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>67.8</v>
+        <v>69.3</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K46" s="3">
-        <v>42.8</v>
+        <v>43.3</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="O46" s="3">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1788,25 +1788,25 @@
         <v>5</v>
       </c>
       <c r="C47" s="3">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>72.2</v>
+        <v>69.8</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K47" s="3">
-        <v>41.8</v>
+        <v>42.4</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="3">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1823,28 +1823,28 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>72.2</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K48" s="3">
-        <v>41.7</v>
+        <v>42.4</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
@@ -1853,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="O48" s="3">
-        <v>12.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,25 +1864,25 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>52</v>
+        <v>53.8</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K49" s="3">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="3">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>44.3</v>
+        <v>43.7</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>77.5</v>
+        <v>78.8</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="K50" s="3">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>21.4</v>
+        <v>22.5</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="3">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,16 +2015,16 @@
         <v>14</v>
       </c>
       <c r="C55" s="3">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G55" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
@@ -2033,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="K55" s="3">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -2044,25 +2044,25 @@
         <v>15</v>
       </c>
       <c r="C56" s="3">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G56" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K56" s="3">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,28 +2070,28 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K57" s="3">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2102,25 +2102,25 @@
         <v>12</v>
       </c>
       <c r="C58" s="3">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K58" s="3">
-        <v>18.600000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C59" s="3">
         <v>11.8</v>
@@ -2146,10 +2146,10 @@
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K59" s="3">
-        <v>18.899999999999999</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
@@ -2169,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
@@ -2189,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="3">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
@@ -2198,16 +2198,16 @@
         <v>3</v>
       </c>
       <c r="G61" s="3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K61" s="3">
-        <v>19.600000000000001</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2227,16 +2227,16 @@
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K62" s="3">
-        <v>20.100000000000001</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
         <v>9.6</v>
@@ -2256,16 +2256,16 @@
         <v>11</v>
       </c>
       <c r="G63" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I63" s="3">
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2276,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
@@ -2285,16 +2285,16 @@
         <v>6</v>
       </c>
       <c r="G64" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I64" s="3">
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K64" s="3">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2305,16 +2305,16 @@
         <v>6</v>
       </c>
       <c r="C65" s="3">
-        <v>8.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E65" s="3">
         <v>12</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" s="3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I65" s="3">
         <v>12</v>
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="K65" s="3">
-        <v>23.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2331,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="3">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
@@ -2352,7 +2352,7 @@
         <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,25 +2363,25 @@
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67" s="3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K67" s="3">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="5">
         <v>0.48</v>
@@ -2458,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="O71" s="5">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G72" s="5">
         <v>0.26</v>
@@ -2508,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="K72" s="5">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="M72" s="3">
         <v>2</v>
@@ -2525,28 +2525,28 @@
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" s="5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G73" s="5">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I73" s="3">
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K73" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="O73" s="5">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2566,22 +2566,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G74" s="5">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I74" s="3">
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K74" s="5">
         <v>0.57999999999999996</v>
@@ -2593,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="O74" s="5">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -2610,16 +2610,16 @@
         <v>5</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G75" s="5">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K75" s="5">
         <v>0.57999999999999996</v>
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O75" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="5">
         <v>0.43</v>
@@ -2651,16 +2651,16 @@
         <v>12</v>
       </c>
       <c r="G76" s="5">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I76" s="3">
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K76" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
@@ -2669,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="O76" s="5">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C77" s="5">
         <v>0.4</v>
@@ -2686,10 +2686,10 @@
         <v>7</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G77" s="5">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O77" s="5">
         <v>0.34</v>
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="5">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="G78" s="5">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" s="5">
         <v>0.39</v>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K79" s="5">
         <v>0.49</v>
@@ -2780,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O79" s="5">
         <v>0.33</v>
@@ -2812,13 +2812,13 @@
         <v>16</v>
       </c>
       <c r="K80" s="5">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O80" s="5">
         <v>0.32</v>
@@ -2832,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="5">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
@@ -2847,19 +2847,19 @@
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K81" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M81" s="3">
         <v>11</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O81" s="5">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="5">
         <v>0.36</v>
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="5">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I82" s="3">
         <v>12</v>
@@ -2888,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="K82" s="5">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O82" s="5">
         <v>0.31</v>
@@ -2905,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" s="5">
         <v>0.35</v>
@@ -2926,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="K83" s="5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
@@ -2935,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="O83" s="5">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -2961,10 +2961,10 @@
         <v>14</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K84" s="5">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="O84" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3">
         <v>12.3</v>
@@ -3059,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K88" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3091,22 +3091,22 @@
         <v>13</v>
       </c>
       <c r="G89" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K89" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M89" s="3">
         <v>2</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O89" s="3">
         <v>1</v>
@@ -3120,13 +3120,13 @@
         <v>12</v>
       </c>
       <c r="C90" s="3">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G90" s="3">
         <v>4</v>
@@ -3135,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K90" s="3">
         <v>8</v>
@@ -3144,10 +3144,10 @@
         <v>3</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -3158,31 +3158,31 @@
         <v>16</v>
       </c>
       <c r="C91" s="3">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G91" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>4</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K91" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M91" s="3">
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" s="3">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G92" s="3">
         <v>3</v>
@@ -3214,7 +3214,7 @@
         <v>3</v>
       </c>
       <c r="K92" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M92" s="3">
         <v>5</v>
@@ -3231,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" s="3">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E93" s="3">
         <v>6</v>
@@ -3252,13 +3252,13 @@
         <v>4</v>
       </c>
       <c r="K93" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93" s="3">
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C94" s="3">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G94" s="3">
         <v>3</v>
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -3307,34 +3307,34 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C95" s="3">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3</v>
+      </c>
+      <c r="I95" s="3">
+        <v>8</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3</v>
+      </c>
+      <c r="M95" s="3">
+        <v>8</v>
+      </c>
+      <c r="N95" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G95" s="3">
-        <v>2</v>
-      </c>
-      <c r="I95" s="3">
-        <v>8</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K95" s="3">
-        <v>3</v>
-      </c>
-      <c r="M95" s="3">
-        <v>8</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C96" s="3">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E96" s="3">
         <v>9</v>
@@ -3363,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K96" s="3">
         <v>3</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="3">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K97" s="3">
         <v>3</v>
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="3">
-        <v>17.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
@@ -3439,10 +3439,10 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K98" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M98" s="3">
         <v>11</v>
@@ -3462,13 +3462,13 @@
         <v>11</v>
       </c>
       <c r="C99" s="3">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -3477,10 +3477,10 @@
         <v>12</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K99" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" s="3">
         <v>12</v>
@@ -3497,16 +3497,16 @@
         <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>19.899999999999999</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K100" s="3">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3535,16 +3535,16 @@
         <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" s="3">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>14</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" s="3">
         <v>14</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="3">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C107" s="3">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" s="3">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C109" s="3">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C110" s="3">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C111" s="3">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C112" s="3">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C113" s="3">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="3">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" s="3">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="3">
-        <v>238</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="3">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/teams-raiting.xlsx
+++ b/public/statistic/teams-raiting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23BD94B0-2A8D-426E-9D76-E75FFCDCA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9061B4B-8C74-4545-BC21-1730F1F92FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B99AE6D-806A-4CFF-9FB3-70F05DAB208D}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{128B148C-D92E-48C4-B7C1-7446E79816B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Рейтинг команд" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D984D8E-3C2E-4CBF-85D8-B61E4D80972B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD76410C-85AD-4F05-9F75-A6D4D00E5509}">
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="3">
-        <v>189.7</v>
+        <v>190.1</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>188.5</v>
+        <v>188.9</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -717,25 +717,25 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>33.700000000000003</v>
+        <v>33.6</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3">
-        <v>188.4</v>
+        <v>188.5</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K6" s="3">
-        <v>87.6</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -746,22 +746,22 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>188.2</v>
+        <v>188.5</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K7" s="3">
         <v>87.6</v>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="3">
-        <v>86.6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="3">
-        <v>86.4</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>83.6</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,19 +868,19 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3">
-        <v>185.9</v>
+        <v>186.4</v>
       </c>
       <c r="I11" s="3">
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="3">
-        <v>82.9</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -891,25 +891,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
-        <v>185.7</v>
+        <v>185.9</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="3">
-        <v>82.4</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -926,10 +926,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
-        <v>185.3</v>
+        <v>185.1</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
@@ -949,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>185.1</v>
+        <v>184.7</v>
       </c>
       <c r="I14" s="3">
         <v>12</v>
@@ -978,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="5">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="5">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="5">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25" s="5">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27" s="5">
         <v>0.45</v>
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G28" s="5">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="5">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5">
         <v>0.38</v>
@@ -1294,10 +1294,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G32" s="5">
         <v>0.37</v>
@@ -1325,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G33" s="5">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="3">
-        <v>81.099999999999994</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1417,25 +1417,25 @@
         <v>7</v>
       </c>
       <c r="G37" s="3">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K37" s="3">
-        <v>50.5</v>
+        <v>49.8</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O37" s="3">
-        <v>17.399999999999999</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="3">
-        <v>75.099999999999994</v>
+        <v>75.8</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1461,19 +1461,19 @@
         <v>2</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="M38" s="3">
         <v>2</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O38" s="3">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -1484,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>74.7</v>
+        <v>75.2</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -1493,16 +1493,16 @@
         <v>3</v>
       </c>
       <c r="G39" s="3">
-        <v>57.9</v>
+        <v>57.2</v>
       </c>
       <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K39" s="3">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="M39" s="3">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="O39" s="3">
-        <v>16.3</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="3">
-        <v>74.3</v>
+        <v>73.5</v>
       </c>
       <c r="E40" s="3">
         <v>4</v>
@@ -1531,16 +1531,16 @@
         <v>12</v>
       </c>
       <c r="G40" s="3">
-        <v>60</v>
+        <v>61.6</v>
       </c>
       <c r="I40" s="3">
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="M40" s="3">
         <v>4</v>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="O40" s="3">
-        <v>16.100000000000001</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>70.900000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
@@ -1569,16 +1569,16 @@
         <v>11</v>
       </c>
       <c r="G41" s="3">
-        <v>60.5</v>
+        <v>62</v>
       </c>
       <c r="I41" s="3">
         <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K41" s="3">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="M41" s="3">
         <v>5</v>
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="O41" s="3">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="3">
-        <v>69.599999999999994</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>62.9</v>
+        <v>62.8</v>
       </c>
       <c r="I42" s="3">
         <v>6</v>
@@ -1616,16 +1616,16 @@
         <v>14</v>
       </c>
       <c r="K42" s="3">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="M42" s="3">
         <v>6</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O42" s="3">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>68.2</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="3">
-        <v>64.3</v>
+        <v>65.5</v>
       </c>
       <c r="I43" s="3">
         <v>7</v>
@@ -1654,16 +1654,16 @@
         <v>12</v>
       </c>
       <c r="K43" s="3">
-        <v>45.8</v>
+        <v>45.2</v>
       </c>
       <c r="M43" s="3">
         <v>7</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O43" s="3">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -1674,17 +1674,17 @@
         <v>3</v>
       </c>
       <c r="C44" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3">
         <v>66.5</v>
       </c>
-      <c r="E44" s="3">
-        <v>8</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="3">
-        <v>65.7</v>
-      </c>
       <c r="I44" s="3">
         <v>8</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="K44" s="3">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="M44" s="3">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="O44" s="3">
-        <v>12.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1712,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="C45" s="3">
-        <v>60.6</v>
+        <v>61.3</v>
       </c>
       <c r="E45" s="3">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45" s="3">
-        <v>67</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="I45" s="3">
         <v>9</v>
@@ -1730,16 +1730,16 @@
         <v>8</v>
       </c>
       <c r="K45" s="3">
-        <v>43.7</v>
+        <v>44.1</v>
       </c>
       <c r="M45" s="3">
         <v>9</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O45" s="3">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>69.3</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="I46" s="3">
         <v>10</v>
@@ -1768,16 +1768,16 @@
         <v>6</v>
       </c>
       <c r="K46" s="3">
-        <v>43.3</v>
+        <v>44</v>
       </c>
       <c r="M46" s="3">
         <v>10</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O46" s="3">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="3">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="E47" s="3">
         <v>11</v>
@@ -1797,25 +1797,25 @@
         <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>69.8</v>
+        <v>69.5</v>
       </c>
       <c r="I47" s="3">
         <v>11</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K47" s="3">
-        <v>42.4</v>
+        <v>43.8</v>
       </c>
       <c r="M47" s="3">
         <v>11</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O47" s="3">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -1826,34 +1826,34 @@
         <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>56.3</v>
+        <v>56.5</v>
       </c>
       <c r="E48" s="3">
         <v>12</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G48" s="3">
-        <v>72.599999999999994</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="I48" s="3">
         <v>12</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K48" s="3">
-        <v>42.4</v>
+        <v>43.4</v>
       </c>
       <c r="M48" s="3">
         <v>12</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O48" s="3">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -1864,16 +1864,16 @@
         <v>16</v>
       </c>
       <c r="C49" s="3">
-        <v>53.8</v>
+        <v>54.8</v>
       </c>
       <c r="E49" s="3">
         <v>13</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="I49" s="3">
         <v>13</v>
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="3">
-        <v>41.4</v>
+        <v>42</v>
       </c>
       <c r="M49" s="3">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="3">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3">
         <v>14</v>
@@ -1911,7 +1911,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>78.8</v>
+        <v>78.2</v>
       </c>
       <c r="I50" s="3">
         <v>14</v>
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="K50" s="3">
-        <v>40.6</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="M50" s="3">
         <v>14</v>
@@ -1929,7 +1929,7 @@
         <v>16</v>
       </c>
       <c r="O50" s="3">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="3">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="3">
-        <v>16.7</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,16 +2015,16 @@
         <v>14</v>
       </c>
       <c r="C55" s="3">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G55" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
@@ -2044,16 +2044,16 @@
         <v>15</v>
       </c>
       <c r="C56" s="3">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I56" s="3">
         <v>3</v>
@@ -2062,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="K56" s="3">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="3">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -2082,16 +2082,16 @@
         <v>14</v>
       </c>
       <c r="G57" s="3">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K57" s="3">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -2099,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
@@ -2111,16 +2111,16 @@
         <v>12</v>
       </c>
       <c r="G58" s="3">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I58" s="3">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K58" s="3">
-        <v>18</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -2128,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -2140,16 +2140,16 @@
         <v>13</v>
       </c>
       <c r="G59" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I59" s="3">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K59" s="3">
-        <v>18.399999999999999</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -2160,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="3">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E60" s="3">
         <v>7</v>
@@ -2169,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I60" s="3">
         <v>7</v>
@@ -2178,7 +2178,7 @@
         <v>15</v>
       </c>
       <c r="K60" s="3">
-        <v>19.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -2198,16 +2198,16 @@
         <v>3</v>
       </c>
       <c r="G61" s="3">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I61" s="3">
         <v>8</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K61" s="3">
-        <v>20.100000000000001</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="3">
-        <v>9.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
@@ -2227,16 +2227,16 @@
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I62" s="3">
         <v>9</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K62" s="3">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -2247,13 +2247,13 @@
         <v>9</v>
       </c>
       <c r="C63" s="3">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G63" s="3">
         <v>2.2999999999999998</v>
@@ -2262,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K63" s="3">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -2276,13 +2276,13 @@
         <v>16</v>
       </c>
       <c r="C64" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="E64" s="3">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G64" s="3">
         <v>2.1</v>
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K64" s="3">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="K65" s="3">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="3">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="E66" s="3">
         <v>13</v>
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="G66" s="3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I66" s="3">
         <v>13</v>
@@ -2352,7 +2352,7 @@
         <v>16</v>
       </c>
       <c r="K66" s="3">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E67" s="3">
         <v>14</v>
@@ -2372,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I67" s="3">
         <v>14</v>
@@ -2381,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="K67" s="3">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="G71" s="5">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="K71" s="5">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="M71" s="3">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="O71" s="5">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72" s="5">
         <v>0.48</v>
@@ -2496,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G72" s="5">
         <v>0.26</v>
@@ -2543,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K73" s="5">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="M73" s="3">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="O73" s="5">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>15</v>
       </c>
       <c r="C74" s="5">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G74" s="5">
         <v>0.25</v>
@@ -2581,16 +2581,16 @@
         <v>4</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K74" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="M74" s="3">
         <v>4</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O74" s="5">
         <v>0.37</v>
@@ -2619,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K75" s="5">
         <v>0.57999999999999996</v>
@@ -2628,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O75" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -2651,16 +2651,16 @@
         <v>12</v>
       </c>
       <c r="G76" s="5">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I76" s="3">
         <v>6</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K76" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M76" s="3">
         <v>6</v>
@@ -2677,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C77" s="5">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
@@ -2689,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="G77" s="5">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I77" s="3">
         <v>7</v>
@@ -2698,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="K77" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M77" s="3">
         <v>7</v>
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C78" s="5">
         <v>0.4</v>
@@ -2724,10 +2724,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G78" s="5">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I78" s="3">
         <v>8</v>
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="M78" s="3">
         <v>8</v>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="O78" s="5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -2762,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G79" s="5">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I79" s="3">
         <v>9</v>
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="K79" s="5">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="M79" s="3">
         <v>9</v>
@@ -2794,13 +2794,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="5">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G80" s="5">
         <v>0.2</v>
@@ -2812,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="K80" s="5">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="M80" s="3">
         <v>10</v>
@@ -2832,16 +2832,16 @@
         <v>16</v>
       </c>
       <c r="C81" s="5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G81" s="5">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I81" s="3">
         <v>11</v>
@@ -2870,7 +2870,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
@@ -2888,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="K82" s="5">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M82" s="3">
         <v>12</v>
@@ -2897,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="O82" s="5">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -2905,10 +2905,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" s="5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
@@ -2917,16 +2917,16 @@
         <v>10</v>
       </c>
       <c r="G83" s="5">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I83" s="3">
         <v>13</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K83" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="M83" s="3">
         <v>13</v>
@@ -2935,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="O83" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -2943,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <v>0.34</v>
@@ -2961,10 +2961,10 @@
         <v>14</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K84" s="5">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="M84" s="3">
         <v>14</v>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="O84" s="5">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="G88" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -3062,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="K88" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M88" s="3">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -3091,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I89" s="3">
         <v>2</v>
@@ -3100,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="K89" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M89" s="3">
         <v>2</v>
@@ -3120,16 +3120,16 @@
         <v>12</v>
       </c>
       <c r="C90" s="3">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E90" s="3">
         <v>3</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G90" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I90" s="3">
         <v>3</v>
@@ -3158,16 +3158,16 @@
         <v>16</v>
       </c>
       <c r="C91" s="3">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>4</v>
@@ -3176,13 +3176,13 @@
         <v>9</v>
       </c>
       <c r="K91" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3193,25 +3193,25 @@
         <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C92" s="3">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E92" s="3">
         <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I92" s="3">
         <v>5</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="3">
         <v>5</v>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O92" s="3">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C93" s="3">
         <v>15.2</v>
@@ -3240,16 +3240,16 @@
         <v>6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G93" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93" s="3">
         <v>6</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K93" s="3">
         <v>5</v>
@@ -3258,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -3269,16 +3269,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C94" s="3">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E94" s="3">
         <v>7</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G94" s="3">
         <v>3</v>
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>3</v>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>8</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C95" s="3">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E95" s="3">
         <v>8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G95" s="3">
         <v>3</v>
@@ -3325,7 +3325,7 @@
         <v>8</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K95" s="3">
         <v>3</v>
@@ -3334,7 +3334,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="3">
         <v>15.5</v>
@@ -3354,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3">
         <v>2</v>
@@ -3386,22 +3386,22 @@
         <v>5</v>
       </c>
       <c r="C97" s="3">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E97" s="3">
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="3">
         <v>10</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K97" s="3">
         <v>3</v>
@@ -3424,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="3">
-        <v>17.100000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="E98" s="3">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K98" s="3">
         <v>3</v>
@@ -3462,13 +3462,13 @@
         <v>11</v>
       </c>
       <c r="C99" s="3">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="E99" s="3">
         <v>12</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -3486,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>19.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="E100" s="3">
         <v>13</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -3515,16 +3515,16 @@
         <v>13</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K100" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" s="3">
         <v>13</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -3544,16 +3544,16 @@
         <v>14</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="3">
         <v>14</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K101" s="3">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C105" s="3">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -3605,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -3613,10 +3613,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C107" s="3">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="3">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -3635,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C109" s="3">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -3649,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="3">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -3657,10 +3657,10 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C111" s="3">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C112" s="3">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C114" s="3">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C115" s="3">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C116" s="3">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="3">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="3">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
